--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G404"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10745,6 +10745,87 @@
         <v>348.180909090909</v>
       </c>
       <c r="G404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>345.0423809523809</v>
+      </c>
+      <c r="C405" t="n">
+        <v>334.21</v>
+      </c>
+      <c r="D405" t="n">
+        <v>337.3515789473685</v>
+      </c>
+      <c r="E405" t="n">
+        <v>333.8344444444444</v>
+      </c>
+      <c r="F405" t="n">
+        <v>349.9509090909091</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>348.2552380952381</v>
+      </c>
+      <c r="C406" t="n">
+        <v>338.93</v>
+      </c>
+      <c r="D406" t="n">
+        <v>333.1263157894737</v>
+      </c>
+      <c r="E406" t="n">
+        <v>334.4877777777777</v>
+      </c>
+      <c r="F406" t="n">
+        <v>341.1790909090909</v>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:21+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>355.2828571428572</v>
+      </c>
+      <c r="C407" t="n">
+        <v>343.18</v>
+      </c>
+      <c r="D407" t="n">
+        <v>341.4036842105263</v>
+      </c>
+      <c r="E407" t="n">
+        <v>343.5966666666667</v>
+      </c>
+      <c r="F407" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="G407" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10761,7 +10842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B469"/>
+  <dimension ref="A1:B472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15459,6 +15540,36 @@
       </c>
       <c r="B469" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -15627,28 +15738,28 @@
         <v>0.1315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2011631651824541</v>
+        <v>0.2150318514079792</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K2" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0265275262889807</v>
+        <v>0.03038671580418484</v>
       </c>
       <c r="M2" t="n">
-        <v>6.675878683729152</v>
+        <v>6.68933097056152</v>
       </c>
       <c r="N2" t="n">
-        <v>72.36432724435932</v>
+        <v>72.46541043515388</v>
       </c>
       <c r="O2" t="n">
-        <v>8.506722473688637</v>
+        <v>8.512661771452798</v>
       </c>
       <c r="P2" t="n">
-        <v>336.1910964488837</v>
+        <v>336.0431278641267</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15698,28 +15809,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.1728980452212205</v>
+        <v>0.1806876175124151</v>
       </c>
       <c r="J3" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K3" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02502449963655351</v>
+        <v>0.02755208324370328</v>
       </c>
       <c r="M3" t="n">
-        <v>5.847846866109344</v>
+        <v>5.840104010675005</v>
       </c>
       <c r="N3" t="n">
-        <v>56.13668624374062</v>
+        <v>55.95441284125378</v>
       </c>
       <c r="O3" t="n">
-        <v>7.492441941299286</v>
+        <v>7.480268233242294</v>
       </c>
       <c r="P3" t="n">
-        <v>329.7109640924657</v>
+        <v>329.6267297043059</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15769,28 +15880,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1430035163883102</v>
+        <v>0.151997183369059</v>
       </c>
       <c r="J4" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K4" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01721416844303358</v>
+        <v>0.01960225716289243</v>
       </c>
       <c r="M4" t="n">
-        <v>5.78004855423785</v>
+        <v>5.781464540919314</v>
       </c>
       <c r="N4" t="n">
-        <v>56.55348382277895</v>
+        <v>56.40555569334154</v>
       </c>
       <c r="O4" t="n">
-        <v>7.520205038612906</v>
+        <v>7.510363219801127</v>
       </c>
       <c r="P4" t="n">
-        <v>328.3184772326103</v>
+        <v>328.2220421510058</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15846,28 +15957,28 @@
         <v>0.1049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1956357412392644</v>
+        <v>0.2056306595323394</v>
       </c>
       <c r="J5" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K5" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02469128397195797</v>
+        <v>0.02745639616663231</v>
       </c>
       <c r="M5" t="n">
-        <v>6.604303890389375</v>
+        <v>6.60865733475022</v>
       </c>
       <c r="N5" t="n">
-        <v>74.65100575183038</v>
+        <v>74.4930197881516</v>
       </c>
       <c r="O5" t="n">
-        <v>8.640081350996088</v>
+        <v>8.63093388852861</v>
       </c>
       <c r="P5" t="n">
-        <v>326.2378183425823</v>
+        <v>326.1312094965004</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15923,28 +16034,28 @@
         <v>0.1533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04164238275914899</v>
+        <v>-0.02539849733128855</v>
       </c>
       <c r="J6" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K6" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001060960968178648</v>
+        <v>0.0003962993681814186</v>
       </c>
       <c r="M6" t="n">
-        <v>6.759269265343567</v>
+        <v>6.785782996605394</v>
       </c>
       <c r="N6" t="n">
-        <v>76.92682917922427</v>
+        <v>77.25459718040607</v>
       </c>
       <c r="O6" t="n">
-        <v>8.770794101974134</v>
+        <v>8.78945943618867</v>
       </c>
       <c r="P6" t="n">
-        <v>341.0937429541791</v>
+        <v>340.9146288439874</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15981,7 +16092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G404"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29729,6 +29840,117 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-45.101906035055514,170.97267774796913</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-45.102537786448025,170.9725342150979</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-45.10317250520467,170.97256819308623</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-45.10380579953181,170.97251758410528</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-45.1044432660082,170.9727163890547</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-45.10190671888369,170.97271856061272</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-45.10253879113794,170.97259417350222</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-45.103171605804285,170.97251451875644</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-45.103805938604765,170.9725258836159</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-45.104441398897634,170.97260495648328</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:21+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-45.101908214599334,170.97280783184868</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-45.10253969575767,170.97264816147495</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-45.10317336772254,170.97261966776045</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-45.10380787752161,170.9726415968674</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-45.104444466249994,170.97278802510996</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -15583,7 +15583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15674,35 +15674,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15761,27 +15766,28 @@
       <c r="P2" t="n">
         <v>336.0431278641267</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.96829471342198 -45.101832511000126, 170.9795079604424 -45.10202027407523)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.968294713422</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.10183251100013</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.9795079604424</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.10202027407523</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.9739013369322</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.10192639253768</v>
       </c>
     </row>
@@ -15832,27 +15838,28 @@
       <c r="P3" t="n">
         <v>329.6267297043059</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.96828873634487 -45.10246656718535, 170.97950206766532 -45.10265433194189)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.9682887363449</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.10246656718535</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.9795020676653</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.10265433194189</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.9738954020051</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.10256044956363</v>
       </c>
     </row>
@@ -15903,27 +15910,28 @@
       <c r="P4" t="n">
         <v>328.2220421510058</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.96828275926717 -45.10310061632889, 170.97949617488953 -45.103288382766664)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.9682827592672</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.10310061632889</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.9794961748895</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.10328838276666</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.9738894670784</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.10319449954778</v>
       </c>
     </row>
@@ -15980,27 +15988,28 @@
       <c r="P5" t="n">
         <v>326.1312094965004</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.96827678218884 -45.10373465843053, 170.979490282115 -45.1039224265498)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.9682767821888</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.10373465843053</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.979490282115</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.1039224265498</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.9738835321519</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.10382854249016</v>
       </c>
     </row>
@@ -16057,27 +16066,28 @@
       <c r="P6" t="n">
         <v>340.9146288439874</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.96827080510988 -45.10436869349033, 170.97948438934168 -45.10455646329122)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.9682708051099</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.10436869349033</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.9794843893417</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.10455646329122</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.9738775972258</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.10446257839077</v>
       </c>
     </row>

--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10826,6 +10826,114 @@
         <v>355.59</v>
       </c>
       <c r="G407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>345.1509523809524</v>
+      </c>
+      <c r="C408" t="n">
+        <v>339.7</v>
+      </c>
+      <c r="D408" t="n">
+        <v>335.7715789473684</v>
+      </c>
+      <c r="E408" t="n">
+        <v>334.7577777777778</v>
+      </c>
+      <c r="F408" t="n">
+        <v>342.5427272727272</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-02 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>337.4880952380952</v>
+      </c>
+      <c r="C409" t="n">
+        <v>330.73</v>
+      </c>
+      <c r="D409" t="n">
+        <v>329.2078947368421</v>
+      </c>
+      <c r="E409" t="n">
+        <v>327.3311111111111</v>
+      </c>
+      <c r="F409" t="n">
+        <v>335.1727272727272</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>344.7780952380953</v>
+      </c>
+      <c r="C410" t="n">
+        <v>336.78</v>
+      </c>
+      <c r="D410" t="n">
+        <v>334.268947368421</v>
+      </c>
+      <c r="E410" t="n">
+        <v>330.6277777777778</v>
+      </c>
+      <c r="F410" t="n">
+        <v>339.110909090909</v>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:05+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>349.8809523809524</v>
+      </c>
+      <c r="C411" t="n">
+        <v>341.92</v>
+      </c>
+      <c r="D411" t="n">
+        <v>339.9894736842105</v>
+      </c>
+      <c r="E411" t="n">
+        <v>339.5544444444445</v>
+      </c>
+      <c r="F411" t="n">
+        <v>347.9463636363636</v>
+      </c>
+      <c r="G411" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10842,7 +10950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B472"/>
+  <dimension ref="A1:B476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15570,6 +15678,46 @@
       </c>
       <c r="B472" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-04-02 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -15743,28 +15891,28 @@
         <v>0.1315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2150318514079792</v>
+        <v>0.2211817255210688</v>
       </c>
       <c r="J2" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K2" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03038671580418484</v>
+        <v>0.03265121011618544</v>
       </c>
       <c r="M2" t="n">
-        <v>6.68933097056152</v>
+        <v>6.668010788919039</v>
       </c>
       <c r="N2" t="n">
-        <v>72.46541043515388</v>
+        <v>71.95384847489206</v>
       </c>
       <c r="O2" t="n">
-        <v>8.512661771452798</v>
+        <v>8.482561433605539</v>
       </c>
       <c r="P2" t="n">
-        <v>336.0431278641267</v>
+        <v>335.9769136605128</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15815,28 +15963,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.1806876175124151</v>
+        <v>0.187312054697184</v>
       </c>
       <c r="J3" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K3" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02755208324370328</v>
+        <v>0.03001362346353209</v>
       </c>
       <c r="M3" t="n">
-        <v>5.840104010675005</v>
+        <v>5.831108345978655</v>
       </c>
       <c r="N3" t="n">
-        <v>55.95441284125378</v>
+        <v>55.6254540723316</v>
       </c>
       <c r="O3" t="n">
-        <v>7.480268233242294</v>
+        <v>7.458247386104299</v>
       </c>
       <c r="P3" t="n">
-        <v>329.6267297043059</v>
+        <v>329.5545376738936</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15887,28 +16035,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.151997183369059</v>
+        <v>0.1579689201567313</v>
       </c>
       <c r="J4" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K4" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01960225716289243</v>
+        <v>0.02150507535111168</v>
       </c>
       <c r="M4" t="n">
-        <v>5.781464540919314</v>
+        <v>5.766368908223698</v>
       </c>
       <c r="N4" t="n">
-        <v>56.40555569334154</v>
+        <v>56.01651898975673</v>
       </c>
       <c r="O4" t="n">
-        <v>7.510363219801127</v>
+        <v>7.484418413594788</v>
       </c>
       <c r="P4" t="n">
-        <v>328.2220421510058</v>
+        <v>328.1573854984013</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15965,28 +16113,28 @@
         <v>0.1049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2056306595323394</v>
+        <v>0.2092310628626526</v>
       </c>
       <c r="J5" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K5" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02745639616663231</v>
+        <v>0.02888802351731734</v>
       </c>
       <c r="M5" t="n">
-        <v>6.60865733475022</v>
+        <v>6.583982840838564</v>
       </c>
       <c r="N5" t="n">
-        <v>74.4930197881516</v>
+        <v>73.92326652537908</v>
       </c>
       <c r="O5" t="n">
-        <v>8.63093388852861</v>
+        <v>8.597864067626277</v>
       </c>
       <c r="P5" t="n">
-        <v>326.1312094965004</v>
+        <v>326.0924594362689</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16043,28 +16191,28 @@
         <v>0.1533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02539849733128855</v>
+        <v>-0.02315470216860059</v>
       </c>
       <c r="J6" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K6" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003962993681814186</v>
+        <v>0.0003358048573907091</v>
       </c>
       <c r="M6" t="n">
-        <v>6.785782996605394</v>
+        <v>6.753108087216617</v>
       </c>
       <c r="N6" t="n">
-        <v>77.25459718040607</v>
+        <v>76.58068662216795</v>
       </c>
       <c r="O6" t="n">
-        <v>8.78945943618867</v>
+        <v>8.751039173844894</v>
       </c>
       <c r="P6" t="n">
-        <v>340.9146288439874</v>
+        <v>340.8896055519332</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16102,7 +16250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29961,6 +30109,154 @@
         </is>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-45.10190605816422,170.97267912714247</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-45.10253895503565,170.9726039548524</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-45.103172168884754,170.97254812204233</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-45.10380599607861,170.97252931351574</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-45.10444168915929,170.9726222794028</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-02 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-45.101904427135295,170.9725817865436</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-45.10253704568192,170.97249000847984</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-45.10317077169656,170.9724647423032</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-45.10380441515549,170.9724349701024</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-45.10444012036056,170.97252865480047</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-45.10190597880399,170.97267439077086</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-45.10253833349708,170.97256686194052</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-45.10317184903027,170.9725290338247</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-45.103805116930346,170.97247684875302</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-45.10444095866246,170.97257868338926</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:05+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-45.10190706489702,170.97273921191982</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-45.10253942756718,170.97263215562865</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-45.10317306670095,170.97260170277127</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-45.103807017109204,170.97259024716976</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-45.104442839343626,170.97269092436102</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10936,6 +10936,87 @@
       <c r="G411" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:19:48+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>346.0166666666667</v>
+      </c>
+      <c r="C412" t="n">
+        <v>339.34</v>
+      </c>
+      <c r="D412" t="n">
+        <v>333.6452631578948</v>
+      </c>
+      <c r="E412" t="n">
+        <v>332.5977777777778</v>
+      </c>
+      <c r="F412" t="n">
+        <v>336.1790909090909</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>353.9185714285715</v>
+      </c>
+      <c r="C413" t="n">
+        <v>345.38</v>
+      </c>
+      <c r="D413" t="n">
+        <v>339.77</v>
+      </c>
+      <c r="E413" t="n">
+        <v>336.2433333333333</v>
+      </c>
+      <c r="F413" t="n">
+        <v>345.5618181818182</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>357.8057142857143</v>
+      </c>
+      <c r="C414" t="n">
+        <v>354.49</v>
+      </c>
+      <c r="D414" t="n">
+        <v>346.3473684210526</v>
+      </c>
+      <c r="E414" t="n">
+        <v>345.1733333333333</v>
+      </c>
+      <c r="F414" t="n">
+        <v>348.26</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10950,7 +11031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B476"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15718,6 +15799,36 @@
       </c>
       <c r="B476" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -15891,28 +16002,28 @@
         <v>0.1315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2211817255210688</v>
+        <v>0.2390585252154757</v>
       </c>
       <c r="J2" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K2" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03265121011618544</v>
+        <v>0.03792996269154336</v>
       </c>
       <c r="M2" t="n">
-        <v>6.668010788919039</v>
+        <v>6.702176279896785</v>
       </c>
       <c r="N2" t="n">
-        <v>71.95384847489206</v>
+        <v>72.52681066900769</v>
       </c>
       <c r="O2" t="n">
-        <v>8.482561433605539</v>
+        <v>8.516267414132066</v>
       </c>
       <c r="P2" t="n">
-        <v>335.9769136605128</v>
+        <v>335.7835458517512</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15963,28 +16074,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.187312054697184</v>
+        <v>0.2067893120086032</v>
       </c>
       <c r="J3" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03001362346353209</v>
+        <v>0.03595851615612611</v>
       </c>
       <c r="M3" t="n">
-        <v>5.831108345978655</v>
+        <v>5.888836083218972</v>
       </c>
       <c r="N3" t="n">
-        <v>55.6254540723316</v>
+        <v>56.65984454736056</v>
       </c>
       <c r="O3" t="n">
-        <v>7.458247386104299</v>
+        <v>7.527273380671155</v>
       </c>
       <c r="P3" t="n">
-        <v>329.5545376738936</v>
+        <v>329.3411967331305</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16035,28 +16146,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1579689201567313</v>
+        <v>0.1705924434340971</v>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K4" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02150507535111168</v>
+        <v>0.02507366948356471</v>
       </c>
       <c r="M4" t="n">
-        <v>5.766368908223698</v>
+        <v>5.789204077577196</v>
       </c>
       <c r="N4" t="n">
-        <v>56.01651898975673</v>
+        <v>56.25742013645494</v>
       </c>
       <c r="O4" t="n">
-        <v>7.484418413594788</v>
+        <v>7.500494659451131</v>
       </c>
       <c r="P4" t="n">
-        <v>328.1573854984013</v>
+        <v>328.0200217840784</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16113,28 +16224,28 @@
         <v>0.1049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2092310628626526</v>
+        <v>0.2196450356241033</v>
       </c>
       <c r="J5" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K5" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02888802351731734</v>
+        <v>0.03197980494361252</v>
       </c>
       <c r="M5" t="n">
-        <v>6.583982840838564</v>
+        <v>6.592706972707608</v>
       </c>
       <c r="N5" t="n">
-        <v>73.92326652537908</v>
+        <v>73.88677497351219</v>
       </c>
       <c r="O5" t="n">
-        <v>8.597864067626277</v>
+        <v>8.595741676755543</v>
       </c>
       <c r="P5" t="n">
-        <v>326.0924594362689</v>
+        <v>325.9798140158179</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16191,28 +16302,28 @@
         <v>0.1533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02315470216860059</v>
+        <v>-0.01773120467474175</v>
       </c>
       <c r="J6" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003358048573907091</v>
+        <v>0.0001994302182174446</v>
       </c>
       <c r="M6" t="n">
-        <v>6.753108087216617</v>
+        <v>6.746778665815657</v>
       </c>
       <c r="N6" t="n">
-        <v>76.58068662216795</v>
+        <v>76.20549243431741</v>
       </c>
       <c r="O6" t="n">
-        <v>8.751039173844894</v>
+        <v>8.729575730487559</v>
       </c>
       <c r="P6" t="n">
-        <v>340.8896055519332</v>
+        <v>340.8288153652584</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16250,7 +16361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30257,6 +30368,117 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:19:48+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-45.10190624242514,170.9726901242353</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-45.10253887840824,170.97259938175358</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-45.10317171627011,170.97252111104444</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-45.10380553628494,170.97250187431752</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-45.104440334582456,170.97254143911414</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-45.101907924238525,170.9727905014449</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-45.102540164021384,170.97267610819125</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-45.10317301998465,170.97259891475474</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-45.1038063123012,170.9725481850223</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-45.10444233178923,170.97266063234747</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-45.101908751531866,170.97283987948614</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-45.10254210298614,170.97279183301035</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-45.103174419987596,170.97268246833707</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-45.10380821311876,170.97266162579075</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-45.10444290610104,170.97269490863277</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G414"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11017,6 +11017,33 @@
       <c r="G414" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:13:47+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>351.0504761904762</v>
+      </c>
+      <c r="C415" t="n">
+        <v>343.59</v>
+      </c>
+      <c r="D415" t="n">
+        <v>337.6394736842105</v>
+      </c>
+      <c r="E415" t="n">
+        <v>334.9655555555556</v>
+      </c>
+      <c r="F415" t="n">
+        <v>343.0836363636364</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B479"/>
+  <dimension ref="A1:B480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15829,6 +15856,16 @@
       </c>
       <c r="B479" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -16002,28 +16039,28 @@
         <v>0.1315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2390585252154757</v>
+        <v>0.2440293940897524</v>
       </c>
       <c r="J2" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K2" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03792996269154336</v>
+        <v>0.03954612902187937</v>
       </c>
       <c r="M2" t="n">
-        <v>6.702176279896785</v>
+        <v>6.70867310506761</v>
       </c>
       <c r="N2" t="n">
-        <v>72.52681066900769</v>
+        <v>72.55351495485343</v>
       </c>
       <c r="O2" t="n">
-        <v>8.516267414132066</v>
+        <v>8.517835109630465</v>
       </c>
       <c r="P2" t="n">
-        <v>335.7835458517512</v>
+        <v>335.7295422662869</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16074,28 +16111,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.2067893120086032</v>
+        <v>0.2116030641301011</v>
       </c>
       <c r="J3" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K3" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03595851615612611</v>
+        <v>0.03763964413153753</v>
       </c>
       <c r="M3" t="n">
-        <v>5.888836083218972</v>
+        <v>5.898661199770461</v>
       </c>
       <c r="N3" t="n">
-        <v>56.65984454736056</v>
+        <v>56.72103926763778</v>
       </c>
       <c r="O3" t="n">
-        <v>7.527273380671155</v>
+        <v>7.531337150044325</v>
       </c>
       <c r="P3" t="n">
-        <v>329.3411967331305</v>
+        <v>329.2882448545845</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16146,28 +16183,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1705924434340971</v>
+        <v>0.1734437657130088</v>
       </c>
       <c r="J4" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K4" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02507366948356471</v>
+        <v>0.02599888898660596</v>
       </c>
       <c r="M4" t="n">
-        <v>5.789204077577196</v>
+        <v>5.789139552211209</v>
       </c>
       <c r="N4" t="n">
-        <v>56.25742013645494</v>
+        <v>56.17593779745912</v>
       </c>
       <c r="O4" t="n">
-        <v>7.500494659451131</v>
+        <v>7.495060893512415</v>
       </c>
       <c r="P4" t="n">
-        <v>328.0200217840784</v>
+        <v>327.9888696125451</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16224,28 +16261,28 @@
         <v>0.1049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2196450356241033</v>
+        <v>0.2214082299267611</v>
       </c>
       <c r="J5" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K5" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03197980494361252</v>
+        <v>0.03262928103746066</v>
       </c>
       <c r="M5" t="n">
-        <v>6.592706972707608</v>
+        <v>6.585102687719337</v>
       </c>
       <c r="N5" t="n">
-        <v>73.88677497351219</v>
+        <v>73.71236693041166</v>
       </c>
       <c r="O5" t="n">
-        <v>8.595741676755543</v>
+        <v>8.585590657049266</v>
       </c>
       <c r="P5" t="n">
-        <v>325.9798140158179</v>
+        <v>325.9606660285854</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16302,28 +16339,28 @@
         <v>0.1533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01773120467474175</v>
+        <v>-0.01612143523897617</v>
       </c>
       <c r="J6" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K6" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001994302182174446</v>
+        <v>0.0001657479308235787</v>
       </c>
       <c r="M6" t="n">
-        <v>6.746778665815657</v>
+        <v>6.735194018430107</v>
       </c>
       <c r="N6" t="n">
-        <v>76.20549243431741</v>
+        <v>75.99475107770621</v>
       </c>
       <c r="O6" t="n">
-        <v>8.729575730487559</v>
+        <v>8.71749683554323</v>
       </c>
       <c r="P6" t="n">
-        <v>340.8288153652584</v>
+        <v>340.8107191115661</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16361,7 +16398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G414"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21821,7 +21858,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-45.10380634304818,170.9725500199482</t>
+          <t>-45.103806343048184,170.9725500199482</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -24990,7 +25027,7 @@
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-45.10316911786964,170.97236605188306</t>
+          <t>-45.10316911786965,170.97236605188306</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -30479,6 +30516,43 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:13:47+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-45.1019073138135,170.97275406827924</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-45.10253978302551,170.97265336972657</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-45.10317256648577,170.9725718502685</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-45.10380604030738,170.97253195298597</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-45.104441804295675,170.9726291508276</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G415"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11042,6 +11042,60 @@
         <v>343.0836363636364</v>
       </c>
       <c r="G415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>351.3452380952381</v>
+      </c>
+      <c r="C416" t="n">
+        <v>344.77</v>
+      </c>
+      <c r="D416" t="n">
+        <v>339.2757894736842</v>
+      </c>
+      <c r="E416" t="n">
+        <v>332.9944444444445</v>
+      </c>
+      <c r="F416" t="n">
+        <v>342.17</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>338.1023809523809</v>
+      </c>
+      <c r="C417" t="n">
+        <v>334.79</v>
+      </c>
+      <c r="D417" t="n">
+        <v>332.6931578947368</v>
+      </c>
+      <c r="E417" t="n">
+        <v>313.7744444444444</v>
+      </c>
+      <c r="F417" t="n">
+        <v>324.7081818181818</v>
+      </c>
+      <c r="G417" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11058,7 +11112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B480"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15866,6 +15920,26 @@
       </c>
       <c r="B480" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -16039,28 +16113,28 @@
         <v>0.1315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2440293940897524</v>
+        <v>0.2469155800013306</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K2" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03954612902187937</v>
+        <v>0.04071644961496479</v>
       </c>
       <c r="M2" t="n">
-        <v>6.70867310506761</v>
+        <v>6.708141684818621</v>
       </c>
       <c r="N2" t="n">
-        <v>72.55351495485343</v>
+        <v>72.43405548166234</v>
       </c>
       <c r="O2" t="n">
-        <v>8.517835109630465</v>
+        <v>8.510819906546157</v>
       </c>
       <c r="P2" t="n">
-        <v>335.7295422662869</v>
+        <v>335.6981707176448</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16111,28 +16185,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.2116030641301011</v>
+        <v>0.216961390346543</v>
       </c>
       <c r="J3" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K3" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03763964413153753</v>
+        <v>0.03970904240468132</v>
       </c>
       <c r="M3" t="n">
-        <v>5.898661199770461</v>
+        <v>5.89535105640002</v>
       </c>
       <c r="N3" t="n">
-        <v>56.72103926763778</v>
+        <v>56.68262630563234</v>
       </c>
       <c r="O3" t="n">
-        <v>7.531337150044325</v>
+        <v>7.528786509500209</v>
       </c>
       <c r="P3" t="n">
-        <v>329.2882448545845</v>
+        <v>329.2291798986314</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16183,28 +16257,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1734437657130088</v>
+        <v>0.1772343375289494</v>
       </c>
       <c r="J4" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02599888898660596</v>
+        <v>0.02734004306898008</v>
       </c>
       <c r="M4" t="n">
-        <v>5.789139552211209</v>
+        <v>5.77821321465523</v>
       </c>
       <c r="N4" t="n">
-        <v>56.17593779745912</v>
+        <v>55.99199010257652</v>
       </c>
       <c r="O4" t="n">
-        <v>7.495060893512415</v>
+        <v>7.482779570625913</v>
       </c>
       <c r="P4" t="n">
-        <v>327.9888696125451</v>
+        <v>327.9473675249168</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16261,28 +16335,28 @@
         <v>0.1049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2214082299267611</v>
+        <v>0.2126424819676838</v>
       </c>
       <c r="J5" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K5" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03262928103746066</v>
+        <v>0.03012610518951953</v>
       </c>
       <c r="M5" t="n">
-        <v>6.585102687719337</v>
+        <v>6.594564826107989</v>
       </c>
       <c r="N5" t="n">
-        <v>73.71236693041166</v>
+        <v>74.18944335968872</v>
       </c>
       <c r="O5" t="n">
-        <v>8.585590657049266</v>
+        <v>8.613329400393829</v>
       </c>
       <c r="P5" t="n">
-        <v>325.9606660285854</v>
+        <v>326.0562862960297</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16339,28 +16413,28 @@
         <v>0.1533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01612143523897617</v>
+        <v>-0.02431565382407828</v>
       </c>
       <c r="J6" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K6" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001657479308235787</v>
+        <v>0.000377465091400353</v>
       </c>
       <c r="M6" t="n">
-        <v>6.735194018430107</v>
+        <v>6.743752758547822</v>
       </c>
       <c r="N6" t="n">
-        <v>75.99475107770621</v>
+        <v>76.28509955239154</v>
       </c>
       <c r="O6" t="n">
-        <v>8.71749683554323</v>
+        <v>8.734134161575007</v>
       </c>
       <c r="P6" t="n">
-        <v>340.8107191115661</v>
+        <v>340.9032508988722</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16398,7 +16472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G415"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30553,6 +30627,80 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-45.101907376549065,170.97275781261416</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-45.10254003418531,170.97266835932894</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-45.10317291478872,170.97259263670315</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-45.10380562072285,170.972506913306</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-45.104441609821365,170.97261754447143</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-45.10190455788825,170.97258958976056</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-45.10253790990737,170.97254158286773</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-45.10317151359975,170.97250901626865</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-45.10380152913128,170.9722627552836</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-45.104437892716476,170.97239571873436</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G417"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11096,6 +11096,114 @@
         <v>324.7081818181818</v>
       </c>
       <c r="G417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:15+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>349.4490476190476</v>
+      </c>
+      <c r="C418" t="n">
+        <v>344.39</v>
+      </c>
+      <c r="D418" t="n">
+        <v>333.7673684210527</v>
+      </c>
+      <c r="E418" t="n">
+        <v>333.5255555555556</v>
+      </c>
+      <c r="F418" t="n">
+        <v>344.5990909090909</v>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>355.2609523809524</v>
+      </c>
+      <c r="C419" t="n">
+        <v>342.67</v>
+      </c>
+      <c r="D419" t="n">
+        <v>339.1321052631579</v>
+      </c>
+      <c r="E419" t="n">
+        <v>332.6611111111111</v>
+      </c>
+      <c r="F419" t="n">
+        <v>343.3218181818182</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>347.4995238095238</v>
+      </c>
+      <c r="C420" t="n">
+        <v>343.87</v>
+      </c>
+      <c r="D420" t="n">
+        <v>337.9578947368421</v>
+      </c>
+      <c r="E420" t="n">
+        <v>328.7877777777778</v>
+      </c>
+      <c r="F420" t="n">
+        <v>339.0709090909091</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>352.0409523809524</v>
+      </c>
+      <c r="C421" t="n">
+        <v>341.51</v>
+      </c>
+      <c r="D421" t="n">
+        <v>337.0710526315789</v>
+      </c>
+      <c r="E421" t="n">
+        <v>333.0544444444445</v>
+      </c>
+      <c r="F421" t="n">
+        <v>339.4736363636364</v>
+      </c>
+      <c r="G421" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11112,7 +11220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B482"/>
+  <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15940,6 +16048,46 @@
       </c>
       <c r="B482" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -16113,28 +16261,28 @@
         <v>0.1315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2469155800013306</v>
+        <v>0.2659492875754458</v>
       </c>
       <c r="J2" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K2" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04071644961496479</v>
+        <v>0.04731242426563831</v>
       </c>
       <c r="M2" t="n">
-        <v>6.708141684818621</v>
+        <v>6.729456672878428</v>
       </c>
       <c r="N2" t="n">
-        <v>72.43405548166234</v>
+        <v>72.58029347819287</v>
       </c>
       <c r="O2" t="n">
-        <v>8.510819906546157</v>
+        <v>8.519406873614669</v>
       </c>
       <c r="P2" t="n">
-        <v>335.6981707176448</v>
+        <v>335.4891460051559</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16185,28 +16333,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.216961390346543</v>
+        <v>0.2343138160067118</v>
       </c>
       <c r="J3" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K3" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03970904240468132</v>
+        <v>0.04636886999270295</v>
       </c>
       <c r="M3" t="n">
-        <v>5.89535105640002</v>
+        <v>5.924218214947703</v>
       </c>
       <c r="N3" t="n">
-        <v>56.68262630563234</v>
+        <v>56.79372091361238</v>
       </c>
       <c r="O3" t="n">
-        <v>7.528786509500209</v>
+        <v>7.536160886924614</v>
       </c>
       <c r="P3" t="n">
-        <v>329.2291798986314</v>
+        <v>329.0362419961359</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16257,28 +16405,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1772343375289494</v>
+        <v>0.186660765321332</v>
       </c>
       <c r="J4" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K4" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02734004306898008</v>
+        <v>0.03073542559605769</v>
       </c>
       <c r="M4" t="n">
-        <v>5.77821321465523</v>
+        <v>5.76611183903256</v>
       </c>
       <c r="N4" t="n">
-        <v>55.99199010257652</v>
+        <v>55.62924963056998</v>
       </c>
       <c r="O4" t="n">
-        <v>7.482779570625913</v>
+        <v>7.458501835527694</v>
       </c>
       <c r="P4" t="n">
-        <v>327.9473675249168</v>
+        <v>327.8432355074049</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16335,28 +16483,28 @@
         <v>0.1049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2126424819676838</v>
+        <v>0.213501432652692</v>
       </c>
       <c r="J5" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K5" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03012610518951953</v>
+        <v>0.03096318275640597</v>
       </c>
       <c r="M5" t="n">
-        <v>6.594564826107989</v>
+        <v>6.543139981622391</v>
       </c>
       <c r="N5" t="n">
-        <v>74.18944335968872</v>
+        <v>73.42140679088952</v>
       </c>
       <c r="O5" t="n">
-        <v>8.613329400393829</v>
+        <v>8.568629224729561</v>
       </c>
       <c r="P5" t="n">
-        <v>326.0562862960297</v>
+        <v>326.0468698913897</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16413,28 +16561,28 @@
         <v>0.1533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02431565382407828</v>
+        <v>-0.02121978887101537</v>
       </c>
       <c r="J6" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K6" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000377465091400353</v>
+        <v>0.0002936459065921992</v>
       </c>
       <c r="M6" t="n">
-        <v>6.743752758547822</v>
+        <v>6.692207613167962</v>
       </c>
       <c r="N6" t="n">
-        <v>76.28509955239154</v>
+        <v>75.45845878730509</v>
       </c>
       <c r="O6" t="n">
-        <v>8.734134161575007</v>
+        <v>8.686682841413349</v>
       </c>
       <c r="P6" t="n">
-        <v>340.9032508988722</v>
+        <v>340.8681315136806</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16472,7 +16620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G417"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30701,6 +30849,154 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:15+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-45.101906972971754,170.9727337254712</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-45.10253995330356,170.97266353216884</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-45.10317174226202,170.97252266217106</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-45.10380573377943,170.97251366018705</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-45.10444212686889,170.97264840236588</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-45.10190820993736,170.97280755359438</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-45.10253958720464,170.97264168291807</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-45.10317288420454,170.97259081145492</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-45.10380554976664,170.9725026788619</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-45.10444185499426,170.97263217656422</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>-45.10190655803791,170.97270896084004</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-45.10253984262293,170.97265692658135</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-45.103172634264546,170.97257589523244</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-45.10380472524395,170.97245347462226</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-45.10444095014795,170.9725781752503</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-45.101907524620735,170.97276665021244</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-45.10253934029838,170.97262694737708</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-45.1031724454919,170.97256462950645</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-45.10380563349496,170.97250767550597</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-45.104441035873364,170.97258329128573</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -16252,13 +16252,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105</v>
+        <v>0.18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0847</v>
+        <v>0.1319</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1315</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>0.2659883187809116</v>
@@ -16329,9 +16329,15 @@
       <c r="E3" t="n">
         <v>0.2499999999976717</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1615</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I3" t="n">
         <v>0.2343138160067118</v>
       </c>
@@ -16401,9 +16407,15 @@
       <c r="E4" t="n">
         <v>0.4999999999976717</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1095</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1835</v>
+      </c>
       <c r="I4" t="n">
         <v>0.186710880874502</v>
       </c>
@@ -16474,13 +16486,13 @@
         <v>0.74999999999761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0808</v>
+        <v>0.1112</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1049</v>
+        <v>0.1559</v>
       </c>
       <c r="I5" t="n">
         <v>0.2134966319331397</v>
@@ -16552,13 +16564,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0881</v>
+        <v>0.1067</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1533</v>
+        <v>0.1702</v>
       </c>
       <c r="I6" t="n">
         <v>-0.02123692273049388</v>

--- a/data/nzd0472/nzd0472.xlsx
+++ b/data/nzd0472/nzd0472.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G423"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.35</v>
+        <v>335.45</v>
       </c>
       <c r="C2" t="n">
         <v>330.54</v>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.01</v>
+        <v>345</v>
       </c>
       <c r="C3" t="n">
         <v>334.83</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347.02</v>
+        <v>346.95</v>
       </c>
       <c r="C4" t="n">
         <v>335.81</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340.39</v>
+        <v>340.34</v>
       </c>
       <c r="C5" t="n">
         <v>334.03</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343.54</v>
+        <v>343.49</v>
       </c>
       <c r="C6" t="n">
         <v>335.78</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>345.04</v>
+        <v>345</v>
       </c>
       <c r="C7" t="n">
         <v>337.95</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.3</v>
+        <v>345.24</v>
       </c>
       <c r="C8" t="n">
         <v>339.47</v>
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.64</v>
+        <v>339.61</v>
       </c>
       <c r="C9" t="n">
         <v>335.21</v>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339.98</v>
+        <v>340</v>
       </c>
       <c r="C10" t="n">
         <v>334.57</v>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.57</v>
+        <v>340.62</v>
       </c>
       <c r="C11" t="n">
         <v>333.92</v>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>341.92</v>
+        <v>341.98</v>
       </c>
       <c r="C12" t="n">
         <v>333.35</v>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.18</v>
+        <v>341.21</v>
       </c>
       <c r="C13" t="n">
         <v>334.38</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.7</v>
+        <v>343.68</v>
       </c>
       <c r="C14" t="n">
         <v>338.64</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>350.37</v>
+        <v>350.4</v>
       </c>
       <c r="C15" t="n">
         <v>341.26</v>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>349.86</v>
+        <v>349.91</v>
       </c>
       <c r="C16" t="n">
         <v>338.88</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>349.26</v>
+        <v>349.32</v>
       </c>
       <c r="C17" t="n">
         <v>339.19</v>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>349.45</v>
+        <v>349.51</v>
       </c>
       <c r="C18" t="n">
         <v>338.44</v>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>347.92</v>
+        <v>347.97</v>
       </c>
       <c r="C19" t="n">
         <v>338.88</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.27</v>
+        <v>348.3</v>
       </c>
       <c r="C20" t="n">
         <v>339.31</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>338.39</v>
+        <v>338.38</v>
       </c>
       <c r="C22" t="n">
         <v>333.42</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>338.26</v>
+        <v>338.25</v>
       </c>
       <c r="C23" t="n">
         <v>332.89</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>341.85</v>
+        <v>341.73</v>
       </c>
       <c r="C24" t="n">
         <v>335.21</v>
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>337.7</v>
+        <v>337.71</v>
       </c>
       <c r="C26" t="n">
         <v>333.37</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>334.69</v>
+        <v>334.67</v>
       </c>
       <c r="C28" t="n">
         <v>333.55</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>338.26</v>
+        <v>338.23</v>
       </c>
       <c r="C29" t="n">
         <v>336.5</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>338.46</v>
+        <v>338.43</v>
       </c>
       <c r="C30" t="n">
         <v>335.91</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.34</v>
+        <v>339.31</v>
       </c>
       <c r="C31" t="n">
         <v>336.29</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.03</v>
+        <v>343.99</v>
       </c>
       <c r="C32" t="n">
         <v>337.84</v>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>344.33</v>
+        <v>344.3</v>
       </c>
       <c r="C33" t="n">
         <v>338.78</v>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>342.36</v>
+        <v>342.38</v>
       </c>
       <c r="C34" t="n">
         <v>336.46</v>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.82</v>
+        <v>343.83</v>
       </c>
       <c r="C35" t="n">
         <v>337.92</v>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>341.43</v>
+        <v>341.46</v>
       </c>
       <c r="C37" t="n">
         <v>338.85</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>340.75</v>
+        <v>340.78</v>
       </c>
       <c r="C38" t="n">
         <v>336.78</v>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>338.44</v>
+        <v>338.49</v>
       </c>
       <c r="C39" t="n">
         <v>334.42</v>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>339.27</v>
+        <v>339.31</v>
       </c>
       <c r="C40" t="n">
         <v>334.42</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>338.3</v>
+        <v>338.35</v>
       </c>
       <c r="C41" t="n">
         <v>333.29</v>
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>337.96</v>
+        <v>337.99</v>
       </c>
       <c r="C42" t="n">
         <v>332.8</v>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>338.21</v>
+        <v>338.24</v>
       </c>
       <c r="C43" t="n">
         <v>332.52</v>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>337.86</v>
+        <v>337.89</v>
       </c>
       <c r="C44" t="n">
         <v>332.29</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>337.88</v>
+        <v>337.9</v>
       </c>
       <c r="C45" t="n">
         <v>332.29</v>
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>335.57</v>
+        <v>335.58</v>
       </c>
       <c r="C46" t="n">
         <v>328</v>
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>336.69</v>
+        <v>336.68</v>
       </c>
       <c r="C47" t="n">
         <v>329.36</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>336</v>
+        <v>336.01</v>
       </c>
       <c r="C48" t="n">
         <v>329.25</v>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>337.91</v>
+        <v>337.93</v>
       </c>
       <c r="C49" t="n">
         <v>329.56</v>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>339.6</v>
+        <v>339.62</v>
       </c>
       <c r="C50" t="n">
         <v>329.73</v>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>339.27</v>
+        <v>339.32</v>
       </c>
       <c r="C51" t="n">
         <v>329.71</v>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>340</v>
+        <v>340.06</v>
       </c>
       <c r="C52" t="n">
         <v>330.24</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>340</v>
+        <v>340.06</v>
       </c>
       <c r="C53" t="n">
         <v>330.24</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>340.9</v>
+        <v>340.96</v>
       </c>
       <c r="C54" t="n">
         <v>331.66</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>339.54</v>
+        <v>339.57</v>
       </c>
       <c r="C55" t="n">
         <v>331.63</v>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>340.37</v>
+        <v>340.42</v>
       </c>
       <c r="C56" t="n">
         <v>331.26</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>338.63</v>
+        <v>338.68</v>
       </c>
       <c r="C57" t="n">
         <v>330.13</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>338.64</v>
+        <v>338.68</v>
       </c>
       <c r="C58" t="n">
         <v>330.29</v>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>337.6</v>
+        <v>337.64</v>
       </c>
       <c r="C59" t="n">
         <v>330.23</v>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>336.71</v>
+        <v>336.73</v>
       </c>
       <c r="C60" t="n">
         <v>329.36</v>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>334.96</v>
+        <v>334.94</v>
       </c>
       <c r="C61" t="n">
         <v>328.86</v>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>341.25</v>
+        <v>341.27</v>
       </c>
       <c r="C62" t="n">
         <v>337.93</v>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>338.36</v>
+        <v>338.35</v>
       </c>
       <c r="C63" t="n">
         <v>336.14</v>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>339.8</v>
+        <v>339.82</v>
       </c>
       <c r="C64" t="n">
         <v>335.65</v>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>337.81</v>
+        <v>337.84</v>
       </c>
       <c r="C66" t="n">
         <v>330.72</v>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>339.27</v>
+        <v>339.31</v>
       </c>
       <c r="C67" t="n">
         <v>330.26</v>
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>337.93</v>
+        <v>337.95</v>
       </c>
       <c r="C68" t="n">
         <v>329.56</v>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>336.56</v>
+        <v>336.59</v>
       </c>
       <c r="C69" t="n">
         <v>325.34</v>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>335.04</v>
+        <v>335.06</v>
       </c>
       <c r="C70" t="n">
         <v>324.15</v>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>336.02</v>
+        <v>336.04</v>
       </c>
       <c r="C71" t="n">
         <v>325.2</v>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>338.21</v>
+        <v>338.22</v>
       </c>
       <c r="C72" t="n">
         <v>328.88</v>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>339.17</v>
+        <v>339.15</v>
       </c>
       <c r="C73" t="n">
         <v>331.97</v>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>340.59</v>
+        <v>340.52</v>
       </c>
       <c r="C74" t="n">
         <v>334.65</v>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>336.19</v>
+        <v>336.18</v>
       </c>
       <c r="C76" t="n">
         <v>334.12</v>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>335.51</v>
+        <v>335.5</v>
       </c>
       <c r="C77" t="n">
         <v>331.26</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>333.96</v>
+        <v>333.97</v>
       </c>
       <c r="C79" t="n">
         <v>328.46</v>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>331.7</v>
+        <v>331.71</v>
       </c>
       <c r="C84" t="n">
         <v>326.94</v>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>333.02</v>
+        <v>333.01</v>
       </c>
       <c r="C85" t="n">
         <v>328.47</v>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>326.93</v>
+        <v>327.01</v>
       </c>
       <c r="C86" t="n">
         <v>327.49</v>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>329.38</v>
+        <v>329.41</v>
       </c>
       <c r="C87" t="n">
         <v>327.33</v>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>328.08</v>
+        <v>328.1</v>
       </c>
       <c r="C88" t="n">
         <v>323.93</v>
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>329.45</v>
+        <v>329.5</v>
       </c>
       <c r="C89" t="n">
         <v>325.41</v>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>329.13</v>
+        <v>329.17</v>
       </c>
       <c r="C90" t="n">
         <v>325.08</v>
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>330.31</v>
+        <v>330.35</v>
       </c>
       <c r="C91" t="n">
         <v>325.08</v>
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>330.7</v>
+        <v>330.71</v>
       </c>
       <c r="C92" t="n">
         <v>326.27</v>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>334.16</v>
+        <v>334.15</v>
       </c>
       <c r="C94" t="n">
         <v>327.98</v>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>336.16</v>
+        <v>336.15</v>
       </c>
       <c r="C95" t="n">
         <v>329.96</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>339.88</v>
+        <v>339.85</v>
       </c>
       <c r="C96" t="n">
         <v>331.81</v>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>335.62</v>
+        <v>335.6</v>
       </c>
       <c r="C97" t="n">
         <v>328.08</v>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>329.57</v>
+        <v>329.58</v>
       </c>
       <c r="C99" t="n">
         <v>323.69</v>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>331.21</v>
+        <v>331.25</v>
       </c>
       <c r="C101" t="n">
         <v>326.04</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>332.38</v>
+        <v>332.42</v>
       </c>
       <c r="C102" t="n">
         <v>329.31</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>332.9</v>
+        <v>332.93</v>
       </c>
       <c r="C103" t="n">
         <v>329.53</v>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>332.97</v>
+        <v>333</v>
       </c>
       <c r="C104" t="n">
         <v>328.94</v>
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>331.53</v>
+        <v>331.56</v>
       </c>
       <c r="C105" t="n">
         <v>326.45</v>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>332.42</v>
+        <v>332.45</v>
       </c>
       <c r="C106" t="n">
         <v>327.81</v>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>334.91</v>
+        <v>334.93</v>
       </c>
       <c r="C107" t="n">
         <v>328.02</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>334.43</v>
+        <v>334.45</v>
       </c>
       <c r="C108" t="n">
         <v>327.51</v>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>335.57</v>
+        <v>335.58</v>
       </c>
       <c r="C109" t="n">
         <v>328.21</v>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>336.4</v>
+        <v>336.39</v>
       </c>
       <c r="C110" t="n">
         <v>329.38</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>337.44</v>
+        <v>337.42</v>
       </c>
       <c r="C111" t="n">
         <v>329.73</v>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>339</v>
+        <v>338.97</v>
       </c>
       <c r="C112" t="n">
         <v>329.73</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>340.05</v>
+        <v>340.01</v>
       </c>
       <c r="C113" t="n">
         <v>328.65</v>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>339.57</v>
+        <v>339.53</v>
       </c>
       <c r="C114" t="n">
         <v>328.65</v>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>339.51</v>
+        <v>339.48</v>
       </c>
       <c r="C115" t="n">
         <v>329.32</v>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>339.09</v>
+        <v>339.06</v>
       </c>
       <c r="C116" t="n">
         <v>328.43</v>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>331.65</v>
+        <v>331.69</v>
       </c>
       <c r="C117" t="n">
         <v>324.3</v>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>333.83</v>
+        <v>333.88</v>
       </c>
       <c r="C118" t="n">
         <v>328.47</v>
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>341.87</v>
+        <v>341.93</v>
       </c>
       <c r="C119" t="n">
         <v>330.65</v>
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>338.19</v>
+        <v>338.28</v>
       </c>
       <c r="C120" t="n">
         <v>327.88</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>339.54</v>
+        <v>339.61</v>
       </c>
       <c r="C121" t="n">
         <v>326.96</v>
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>338.48</v>
+        <v>338.5</v>
       </c>
       <c r="C122" t="n">
         <v>326.55</v>
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>340.4</v>
+        <v>340.42</v>
       </c>
       <c r="C123" t="n">
         <v>327.03</v>
@@ -3770,7 +3770,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>339.11</v>
+        <v>339.12</v>
       </c>
       <c r="C124" t="n">
         <v>326.62</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>341.87</v>
+        <v>341.84</v>
       </c>
       <c r="C125" t="n">
         <v>328.05</v>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>341.69</v>
+        <v>341.63</v>
       </c>
       <c r="C126" t="n">
         <v>327.14</v>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>342.76</v>
+        <v>342.79</v>
       </c>
       <c r="C127" t="n">
         <v>332.19</v>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>340.59</v>
+        <v>340.63</v>
       </c>
       <c r="C128" t="n">
         <v>331.43</v>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>340.59</v>
+        <v>340.63</v>
       </c>
       <c r="C129" t="n">
         <v>331.43</v>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>335.46</v>
+        <v>335.53</v>
       </c>
       <c r="C130" t="n">
         <v>329.72</v>
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>338.51</v>
+        <v>338.56</v>
       </c>
       <c r="C131" t="n">
         <v>331.81</v>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>339.31</v>
+        <v>339.36</v>
       </c>
       <c r="C132" t="n">
         <v>332.12</v>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>337.76</v>
+        <v>337.79</v>
       </c>
       <c r="C133" t="n">
         <v>331.4</v>
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>337.71</v>
+        <v>337.72</v>
       </c>
       <c r="C134" t="n">
         <v>330.94</v>
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>338.15</v>
+        <v>338.14</v>
       </c>
       <c r="C135" t="n">
         <v>331.47</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>338.47</v>
+        <v>338.48</v>
       </c>
       <c r="C136" t="n">
         <v>331.62</v>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>337.91</v>
+        <v>337.93</v>
       </c>
       <c r="C137" t="n">
         <v>331.21</v>
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>338.53</v>
+        <v>338.55</v>
       </c>
       <c r="C138" t="n">
         <v>331.65</v>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>338.9</v>
+        <v>338.92</v>
       </c>
       <c r="C139" t="n">
         <v>335.85</v>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>339.14</v>
+        <v>339.15</v>
       </c>
       <c r="C140" t="n">
         <v>335.61</v>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>339.23</v>
+        <v>339.22</v>
       </c>
       <c r="C141" t="n">
         <v>336.18</v>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>338.14</v>
+        <v>338.13</v>
       </c>
       <c r="C142" t="n">
         <v>335.16</v>
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>339</v>
+        <v>338.99</v>
       </c>
       <c r="C143" t="n">
         <v>336.66</v>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>340</v>
+        <v>339.99</v>
       </c>
       <c r="C144" t="n">
         <v>337.14</v>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>341.31</v>
+        <v>341.33</v>
       </c>
       <c r="C146" t="n">
         <v>340.12</v>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>342.8</v>
+        <v>342.79</v>
       </c>
       <c r="C148" t="n">
         <v>341.69</v>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>343.33</v>
+        <v>343.35</v>
       </c>
       <c r="C150" t="n">
         <v>338.72</v>
@@ -4499,7 +4499,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>343.33</v>
+        <v>343.35</v>
       </c>
       <c r="C151" t="n">
         <v>338.72</v>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>343.82</v>
+        <v>343.87</v>
       </c>
       <c r="C152" t="n">
         <v>339.41</v>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>344.48</v>
+        <v>344.53</v>
       </c>
       <c r="C153" t="n">
         <v>339.01</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>345.41</v>
+        <v>345.44</v>
       </c>
       <c r="C154" t="n">
         <v>338.41</v>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>342.07</v>
+        <v>342.11</v>
       </c>
       <c r="C155" t="n">
         <v>335.37</v>
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>340.38</v>
+        <v>340.41</v>
       </c>
       <c r="C157" t="n">
         <v>334.54</v>
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>339.64</v>
+        <v>339.68</v>
       </c>
       <c r="C158" t="n">
         <v>333.51</v>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>339.38</v>
+        <v>339.4</v>
       </c>
       <c r="C159" t="n">
         <v>332.98</v>
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>340.1</v>
+        <v>340.12</v>
       </c>
       <c r="C160" t="n">
         <v>333.6</v>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>341.34</v>
+        <v>341.36</v>
       </c>
       <c r="C161" t="n">
         <v>334.88</v>
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>339.49</v>
+        <v>339.5</v>
       </c>
       <c r="C163" t="n">
         <v>334.07</v>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>340.45</v>
+        <v>340.48</v>
       </c>
       <c r="C164" t="n">
         <v>335.45</v>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>340.07</v>
+        <v>340.1</v>
       </c>
       <c r="C165" t="n">
         <v>335.19</v>
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>340.01</v>
+        <v>340.03</v>
       </c>
       <c r="C166" t="n">
         <v>334.9</v>
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>340.6</v>
+        <v>340.63</v>
       </c>
       <c r="C167" t="n">
         <v>335.63</v>
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>340.99</v>
+        <v>341.01</v>
       </c>
       <c r="C168" t="n">
         <v>336.12</v>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>340.66</v>
+        <v>340.68</v>
       </c>
       <c r="C169" t="n">
         <v>335.51</v>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>341.17</v>
+        <v>341.15</v>
       </c>
       <c r="C171" t="n">
         <v>335.65</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>340.2</v>
+        <v>340.19</v>
       </c>
       <c r="C172" t="n">
         <v>335.1</v>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>340.05</v>
+        <v>340.06</v>
       </c>
       <c r="C174" t="n">
         <v>335.26</v>
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>338.71</v>
+        <v>338.69</v>
       </c>
       <c r="C175" t="n">
         <v>333.19</v>
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>338.71</v>
+        <v>338.69</v>
       </c>
       <c r="C176" t="n">
         <v>333.19</v>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>336.97</v>
+        <v>336.95</v>
       </c>
       <c r="C177" t="n">
         <v>330.9</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>336.97</v>
+        <v>336.95</v>
       </c>
       <c r="C178" t="n">
         <v>330.6</v>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>336.57</v>
+        <v>336.56</v>
       </c>
       <c r="C179" t="n">
         <v>329.97</v>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>335.09</v>
+        <v>335.07</v>
       </c>
       <c r="C180" t="n">
         <v>328.9</v>
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>335.81</v>
+        <v>335.79</v>
       </c>
       <c r="C181" t="n">
         <v>329.4</v>
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>335.03</v>
+        <v>335.01</v>
       </c>
       <c r="C182" t="n">
         <v>328.9</v>
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>334.2</v>
+        <v>334.18</v>
       </c>
       <c r="C183" t="n">
         <v>328.28</v>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>334.52</v>
+        <v>334.5</v>
       </c>
       <c r="C184" t="n">
         <v>328.21</v>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>334.52</v>
+        <v>334.5</v>
       </c>
       <c r="C185" t="n">
         <v>328.21</v>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>334.6</v>
+        <v>334.57</v>
       </c>
       <c r="C186" t="n">
         <v>327.95</v>
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>335.33</v>
+        <v>335.3</v>
       </c>
       <c r="C187" t="n">
         <v>328.74</v>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>335.18</v>
+        <v>335.15</v>
       </c>
       <c r="C188" t="n">
         <v>328.84</v>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>335.03</v>
+        <v>334.98</v>
       </c>
       <c r="C189" t="n">
         <v>329.02</v>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>335.48</v>
+        <v>335.45</v>
       </c>
       <c r="C190" t="n">
         <v>329.29</v>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>335.68</v>
+        <v>335.65</v>
       </c>
       <c r="C191" t="n">
         <v>329.65</v>
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>335.52</v>
+        <v>335.49</v>
       </c>
       <c r="C192" t="n">
         <v>329.59</v>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>336.78</v>
+        <v>336.75</v>
       </c>
       <c r="C193" t="n">
         <v>330.16</v>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>337.02</v>
+        <v>336.99</v>
       </c>
       <c r="C194" t="n">
         <v>330.4</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>337.63</v>
+        <v>337.61</v>
       </c>
       <c r="C195" t="n">
         <v>330.65</v>
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>337.5</v>
+        <v>337.49</v>
       </c>
       <c r="C196" t="n">
         <v>330.5</v>
@@ -5768,7 +5768,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>336.74</v>
+        <v>336.73</v>
       </c>
       <c r="C198" t="n">
         <v>329.67</v>
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>337.3</v>
+        <v>337.31</v>
       </c>
       <c r="C199" t="n">
         <v>329.31</v>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>334.69</v>
+        <v>334.72</v>
       </c>
       <c r="C200" t="n">
         <v>327.3</v>
@@ -5849,7 +5849,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>333.61</v>
+        <v>333.65</v>
       </c>
       <c r="C201" t="n">
         <v>326.69</v>
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>333.12</v>
+        <v>333.16</v>
       </c>
       <c r="C202" t="n">
         <v>326.65</v>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>334.15</v>
+        <v>334.18</v>
       </c>
       <c r="C203" t="n">
         <v>326.86</v>
@@ -5930,7 +5930,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>334.07</v>
+        <v>334.1</v>
       </c>
       <c r="C204" t="n">
         <v>326.88</v>
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>335.23</v>
+        <v>335.22</v>
       </c>
       <c r="C206" t="n">
         <v>327.09</v>
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>334.62</v>
+        <v>334.61</v>
       </c>
       <c r="C208" t="n">
         <v>327.57</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>334.62</v>
+        <v>334.61</v>
       </c>
       <c r="C209" t="n">
         <v>327.57</v>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>334.75</v>
+        <v>334.76</v>
       </c>
       <c r="C210" t="n">
         <v>327.58</v>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>334.75</v>
+        <v>334.76</v>
       </c>
       <c r="C211" t="n">
         <v>328.53</v>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>335.03</v>
+        <v>335.02</v>
       </c>
       <c r="C212" t="n">
         <v>328.81</v>
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>335.27</v>
+        <v>335.25</v>
       </c>
       <c r="C213" t="n">
         <v>329.31</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>334.47</v>
+        <v>334.46</v>
       </c>
       <c r="C214" t="n">
         <v>328.97</v>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>333.62</v>
+        <v>333.61</v>
       </c>
       <c r="C215" t="n">
         <v>330.75</v>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>336.88</v>
+        <v>336.89</v>
       </c>
       <c r="C216" t="n">
         <v>330.53</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>336.27</v>
+        <v>336.28</v>
       </c>
       <c r="C217" t="n">
         <v>330.61</v>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>337.16</v>
+        <v>337.17</v>
       </c>
       <c r="C218" t="n">
         <v>330.69</v>
@@ -6335,7 +6335,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>337.32</v>
+        <v>337.33</v>
       </c>
       <c r="C219" t="n">
         <v>330.78</v>
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>339.05</v>
+        <v>339.07</v>
       </c>
       <c r="C220" t="n">
         <v>329.63</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>339.01</v>
+        <v>339.05</v>
       </c>
       <c r="C221" t="n">
         <v>329.51</v>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>337.53</v>
+        <v>337.58</v>
       </c>
       <c r="C222" t="n">
         <v>328.91</v>
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>338.83</v>
+        <v>338.86</v>
       </c>
       <c r="C223" t="n">
         <v>329.71</v>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>338.83</v>
+        <v>338.86</v>
       </c>
       <c r="C224" t="n">
         <v>329.71</v>
@@ -6497,7 +6497,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>337.03</v>
+        <v>337.05</v>
       </c>
       <c r="C225" t="n">
         <v>330.15</v>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>336.64</v>
+        <v>336.67</v>
       </c>
       <c r="C226" t="n">
         <v>330.13</v>
@@ -6551,7 +6551,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>335.2</v>
+        <v>335.22</v>
       </c>
       <c r="C227" t="n">
         <v>329.09</v>
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>334.07</v>
+        <v>334.09</v>
       </c>
       <c r="C228" t="n">
         <v>328.13</v>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>334.35</v>
+        <v>334.37</v>
       </c>
       <c r="C230" t="n">
         <v>328.71</v>
@@ -6659,7 +6659,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>334.35</v>
+        <v>334.37</v>
       </c>
       <c r="C231" t="n">
         <v>329.24</v>
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>336.55</v>
+        <v>336.51</v>
       </c>
       <c r="C233" t="n">
         <v>330.41</v>
@@ -6794,7 +6794,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>336.44</v>
+        <v>336.42</v>
       </c>
       <c r="C236" t="n">
         <v>329.54</v>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>336.03</v>
+        <v>336.05</v>
       </c>
       <c r="C237" t="n">
         <v>330.04</v>
@@ -6848,7 +6848,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>336.03</v>
+        <v>336.05</v>
       </c>
       <c r="C238" t="n">
         <v>330.35</v>
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>335.98</v>
+        <v>335.97</v>
       </c>
       <c r="C239" t="n">
         <v>329.59</v>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>335.63</v>
+        <v>335.64</v>
       </c>
       <c r="C240" t="n">
         <v>329.32</v>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>335.56</v>
+        <v>335.55</v>
       </c>
       <c r="C241" t="n">
         <v>328.81</v>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>336.19</v>
+        <v>336.2</v>
       </c>
       <c r="C242" t="n">
         <v>329.08</v>
@@ -7010,7 +7010,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>337.57</v>
+        <v>337.58</v>
       </c>
       <c r="C244" t="n">
         <v>330.97</v>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>337.57</v>
+        <v>337.58</v>
       </c>
       <c r="C245" t="n">
         <v>330.75</v>
@@ -7064,7 +7064,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>336.11</v>
+        <v>336.12</v>
       </c>
       <c r="C246" t="n">
         <v>330.14</v>
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>336.75</v>
+        <v>336.77</v>
       </c>
       <c r="C247" t="n">
         <v>330.58</v>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>336.35</v>
+        <v>336.37</v>
       </c>
       <c r="C248" t="n">
         <v>330.6</v>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>336.35</v>
+        <v>336.37</v>
       </c>
       <c r="C249" t="n">
         <v>330.6</v>
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>337.17</v>
+        <v>337.19</v>
       </c>
       <c r="C250" t="n">
         <v>330.75</v>
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>337.33</v>
+        <v>337.35</v>
       </c>
       <c r="C251" t="n">
         <v>331.31</v>
@@ -7226,7 +7226,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>337.34</v>
+        <v>337.36</v>
       </c>
       <c r="C252" t="n">
         <v>331.5</v>
@@ -7253,7 +7253,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>341.01</v>
+        <v>341.02</v>
       </c>
       <c r="C253" t="n">
         <v>332.76</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>343.26</v>
+        <v>343.28</v>
       </c>
       <c r="C254" t="n">
         <v>333.66</v>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>343.95</v>
+        <v>343.97</v>
       </c>
       <c r="C255" t="n">
         <v>332.52</v>
@@ -7334,7 +7334,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>343.58</v>
+        <v>343.59</v>
       </c>
       <c r="C256" t="n">
         <v>332.85</v>
@@ -7361,7 +7361,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>341.24</v>
+        <v>341.25</v>
       </c>
       <c r="C257" t="n">
         <v>331.31</v>
@@ -7388,7 +7388,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>341.22</v>
+        <v>341.24</v>
       </c>
       <c r="C258" t="n">
         <v>330.73</v>
@@ -7415,7 +7415,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>342.18</v>
+        <v>342.2</v>
       </c>
       <c r="C259" t="n">
         <v>331.13</v>
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>342.12</v>
+        <v>342.15</v>
       </c>
       <c r="C260" t="n">
         <v>330.47</v>
@@ -7469,7 +7469,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>341.96</v>
+        <v>341.99</v>
       </c>
       <c r="C261" t="n">
         <v>330.22</v>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>341.42</v>
+        <v>341.46</v>
       </c>
       <c r="C262" t="n">
         <v>329.9</v>
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>338.03</v>
+        <v>338.06</v>
       </c>
       <c r="C263" t="n">
         <v>329.9</v>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>336.74</v>
+        <v>336.76</v>
       </c>
       <c r="C264" t="n">
         <v>329.06</v>
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>335.87</v>
+        <v>335.88</v>
       </c>
       <c r="C265" t="n">
         <v>327.04</v>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>335.05</v>
+        <v>335.06</v>
       </c>
       <c r="C266" t="n">
         <v>326.8</v>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>334.88</v>
+        <v>334.9</v>
       </c>
       <c r="C267" t="n">
         <v>326.48</v>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>331.92</v>
+        <v>331.95</v>
       </c>
       <c r="C268" t="n">
         <v>326.36</v>
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>331.99</v>
+        <v>332.02</v>
       </c>
       <c r="C269" t="n">
         <v>326.88</v>
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>332.77</v>
+        <v>332.81</v>
       </c>
       <c r="C270" t="n">
         <v>327.38</v>
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>333.01</v>
+        <v>333.05</v>
       </c>
       <c r="C271" t="n">
         <v>327.38</v>
@@ -7766,7 +7766,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>332.84</v>
+        <v>332.87</v>
       </c>
       <c r="C272" t="n">
         <v>327.2</v>
@@ -7793,7 +7793,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>333.13</v>
+        <v>333.16</v>
       </c>
       <c r="C273" t="n">
         <v>327.41</v>
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>333.5</v>
+        <v>333.54</v>
       </c>
       <c r="C274" t="n">
         <v>327.69</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>333.02</v>
+        <v>333.07</v>
       </c>
       <c r="C275" t="n">
         <v>327.92</v>
@@ -7874,7 +7874,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>333.13</v>
+        <v>333.17</v>
       </c>
       <c r="C276" t="n">
         <v>328.02</v>
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>333.13</v>
+        <v>333.17</v>
       </c>
       <c r="C277" t="n">
         <v>328.02</v>
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>333.73</v>
+        <v>333.76</v>
       </c>
       <c r="C278" t="n">
         <v>328.02</v>
@@ -7955,7 +7955,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>334.36</v>
+        <v>334.4</v>
       </c>
       <c r="C279" t="n">
         <v>328.34</v>
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>333.14</v>
+        <v>333.16</v>
       </c>
       <c r="C280" t="n">
         <v>328.31</v>
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>334.2</v>
+        <v>334.21</v>
       </c>
       <c r="C281" t="n">
         <v>329.19</v>
@@ -8036,7 +8036,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>336.78</v>
+        <v>336.81</v>
       </c>
       <c r="C282" t="n">
         <v>329.27</v>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>337.28</v>
+        <v>337.31</v>
       </c>
       <c r="C283" t="n">
         <v>331.42</v>
@@ -8090,7 +8090,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>337.75</v>
+        <v>337.79</v>
       </c>
       <c r="C284" t="n">
         <v>331.57</v>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>338.69</v>
+        <v>338.74</v>
       </c>
       <c r="C285" t="n">
         <v>332.19</v>
@@ -8144,7 +8144,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>339.52</v>
+        <v>339.56</v>
       </c>
       <c r="C286" t="n">
         <v>332.19</v>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>341.16</v>
+        <v>341.2</v>
       </c>
       <c r="C287" t="n">
         <v>333.58</v>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>340.11</v>
+        <v>340.16</v>
       </c>
       <c r="C288" t="n">
         <v>333.59</v>
@@ -8225,7 +8225,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>341.28</v>
+        <v>341.31</v>
       </c>
       <c r="C289" t="n">
         <v>334.17</v>
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>341.62</v>
+        <v>341.64</v>
       </c>
       <c r="C290" t="n">
         <v>334.55</v>
@@ -8279,7 +8279,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>342.49</v>
+        <v>342.51</v>
       </c>
       <c r="C291" t="n">
         <v>335.84</v>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>343.25</v>
+        <v>343.27</v>
       </c>
       <c r="C292" t="n">
         <v>337.01</v>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>342.85</v>
+        <v>342.87</v>
       </c>
       <c r="C293" t="n">
         <v>337.01</v>
@@ -8360,7 +8360,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>343.39</v>
+        <v>343.42</v>
       </c>
       <c r="C294" t="n">
         <v>336.87</v>
@@ -8387,7 +8387,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>342.84</v>
+        <v>342.86</v>
       </c>
       <c r="C295" t="n">
         <v>336.08</v>
@@ -8414,7 +8414,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>343.32</v>
+        <v>343.35</v>
       </c>
       <c r="C296" t="n">
         <v>337.11</v>
@@ -8441,7 +8441,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>343.74</v>
+        <v>343.75</v>
       </c>
       <c r="C297" t="n">
         <v>335.39</v>
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>341.78</v>
+        <v>341.79</v>
       </c>
       <c r="C299" t="n">
         <v>335.26</v>
@@ -8549,7 +8549,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>343</v>
+        <v>343.01</v>
       </c>
       <c r="C301" t="n">
         <v>332.27</v>
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>341.13</v>
+        <v>341.12</v>
       </c>
       <c r="C304" t="n">
         <v>330.14</v>
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>340.86</v>
+        <v>340.83</v>
       </c>
       <c r="C305" t="n">
         <v>330.23</v>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>341.65</v>
+        <v>341.63</v>
       </c>
       <c r="C306" t="n">
         <v>330.85</v>
@@ -8711,7 +8711,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>342.77</v>
+        <v>342.74</v>
       </c>
       <c r="C307" t="n">
         <v>332.7</v>
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>344.78</v>
+        <v>344.76</v>
       </c>
       <c r="C308" t="n">
         <v>332.94</v>
@@ -8765,7 +8765,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>344.13</v>
+        <v>344.11</v>
       </c>
       <c r="C309" t="n">
         <v>332.52</v>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>343.97</v>
+        <v>343.96</v>
       </c>
       <c r="C314" t="n">
         <v>336.15</v>
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>343.94</v>
+        <v>343.92</v>
       </c>
       <c r="C315" t="n">
         <v>336.5</v>
@@ -8981,7 +8981,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>345.66</v>
+        <v>345.65</v>
       </c>
       <c r="C317" t="n">
         <v>337.18</v>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>345.92</v>
+        <v>345.91</v>
       </c>
       <c r="C318" t="n">
         <v>337.18</v>
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>345.72</v>
+        <v>345.71</v>
       </c>
       <c r="C319" t="n">
         <v>336.94</v>
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>341.13</v>
+        <v>341.11</v>
       </c>
       <c r="C321" t="n">
         <v>334.27</v>
@@ -9116,7 +9116,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>340.29</v>
+        <v>340.28</v>
       </c>
       <c r="C322" t="n">
         <v>333.84</v>
@@ -9143,7 +9143,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>340.42</v>
+        <v>340.4</v>
       </c>
       <c r="C323" t="n">
         <v>334.41</v>
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>340.76</v>
+        <v>340.74</v>
       </c>
       <c r="C324" t="n">
         <v>333.91</v>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>341.92</v>
+        <v>341.91</v>
       </c>
       <c r="C325" t="n">
         <v>334.87</v>
@@ -9224,7 +9224,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>341.67</v>
+        <v>341.66</v>
       </c>
       <c r="C326" t="n">
         <v>334.97</v>
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>341.97</v>
+        <v>341.96</v>
       </c>
       <c r="C327" t="n">
         <v>334.81</v>
@@ -9305,7 +9305,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>341.1</v>
+        <v>341.09</v>
       </c>
       <c r="C329" t="n">
         <v>333.86</v>
@@ -9386,7 +9386,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>341.85</v>
+        <v>341.86</v>
       </c>
       <c r="C332" t="n">
         <v>334.55</v>
@@ -9413,7 +9413,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>340.87</v>
+        <v>340.89</v>
       </c>
       <c r="C333" t="n">
         <v>333.82</v>
@@ -9440,7 +9440,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>342.24</v>
+        <v>342.26</v>
       </c>
       <c r="C334" t="n">
         <v>333.82</v>
@@ -9467,7 +9467,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>341.39</v>
+        <v>341.41</v>
       </c>
       <c r="C335" t="n">
         <v>333.42</v>
@@ -9494,7 +9494,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>340.56</v>
+        <v>340.59</v>
       </c>
       <c r="C336" t="n">
         <v>333.23</v>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>341.57</v>
+        <v>341.6</v>
       </c>
       <c r="C337" t="n">
         <v>334.43</v>
@@ -9548,7 +9548,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>341.91</v>
+        <v>341.94</v>
       </c>
       <c r="C338" t="n">
         <v>334.74</v>
@@ -9575,7 +9575,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>341.91</v>
+        <v>341.94</v>
       </c>
       <c r="C339" t="n">
         <v>334.74</v>
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>342.69</v>
+        <v>342.74</v>
       </c>
       <c r="C340" t="n">
         <v>335.64</v>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>339.96</v>
+        <v>340</v>
       </c>
       <c r="C341" t="n">
         <v>333.85</v>
@@ -9656,7 +9656,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>341.12</v>
+        <v>341.18</v>
       </c>
       <c r="C342" t="n">
         <v>334.39</v>
@@ -9683,7 +9683,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>340.74</v>
+        <v>340.8</v>
       </c>
       <c r="C343" t="n">
         <v>334.84</v>
@@ -9710,7 +9710,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>340.72</v>
+        <v>340.78</v>
       </c>
       <c r="C344" t="n">
         <v>334.57</v>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>341.33</v>
+        <v>341.37</v>
       </c>
       <c r="C345" t="n">
         <v>334.36</v>
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>339.35</v>
+        <v>339.36</v>
       </c>
       <c r="C346" t="n">
         <v>335.3</v>
@@ -9791,7 +9791,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>338.73</v>
+        <v>338.74</v>
       </c>
       <c r="C347" t="n">
         <v>334.65</v>
@@ -9818,7 +9818,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>336.32</v>
+        <v>336.34</v>
       </c>
       <c r="C348" t="n">
         <v>330.99</v>
@@ -9845,7 +9845,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>337.58</v>
+        <v>337.59</v>
       </c>
       <c r="C349" t="n">
         <v>331.4</v>
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>336.94</v>
+        <v>336.96</v>
       </c>
       <c r="C350" t="n">
         <v>331.3</v>
@@ -9899,7 +9899,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>336.76</v>
+        <v>336.78</v>
       </c>
       <c r="C351" t="n">
         <v>330.63</v>
@@ -9926,7 +9926,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>336.7</v>
+        <v>336.71</v>
       </c>
       <c r="C352" t="n">
         <v>330.56</v>
@@ -9953,7 +9953,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>339.33</v>
+        <v>339.36</v>
       </c>
       <c r="C353" t="n">
         <v>332.52</v>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>339.33</v>
+        <v>339.36</v>
       </c>
       <c r="C354" t="n">
         <v>332.52</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>341.09</v>
+        <v>341.12</v>
       </c>
       <c r="C355" t="n">
         <v>333.85</v>
@@ -10034,7 +10034,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>341.71</v>
+        <v>341.72</v>
       </c>
       <c r="C356" t="n">
         <v>334.41</v>
@@ -10061,7 +10061,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>341.48</v>
+        <v>341.5</v>
       </c>
       <c r="C357" t="n">
         <v>334.19</v>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>341.17</v>
+        <v>341.18</v>
       </c>
       <c r="C358" t="n">
         <v>334.17</v>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>341.66</v>
+        <v>341.67</v>
       </c>
       <c r="C359" t="n">
         <v>335</v>
@@ -10142,7 +10142,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>341</v>
+        <v>341.02</v>
       </c>
       <c r="C360" t="n">
         <v>334.16</v>
@@ -10169,7 +10169,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>341.22</v>
+        <v>341.24</v>
       </c>
       <c r="C361" t="n">
         <v>334.18</v>
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>341.85</v>
+        <v>341.87</v>
       </c>
       <c r="C362" t="n">
         <v>334.72</v>
@@ -10223,7 +10223,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>341.85</v>
+        <v>341.87</v>
       </c>
       <c r="C363" t="n">
         <v>335.47</v>
@@ -10250,7 +10250,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>341.04</v>
+        <v>341.06</v>
       </c>
       <c r="C364" t="n">
         <v>335.47</v>
@@ -10277,7 +10277,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>340.72</v>
+        <v>340.74</v>
       </c>
       <c r="C365" t="n">
         <v>334.97</v>
@@ -10304,7 +10304,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>340.72</v>
+        <v>340.74</v>
       </c>
       <c r="C366" t="n">
         <v>334.57</v>
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>341.12</v>
+        <v>341.14</v>
       </c>
       <c r="C367" t="n">
         <v>334.83</v>
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>341.07</v>
+        <v>341.09</v>
       </c>
       <c r="C368" t="n">
         <v>334.76</v>
@@ -10385,7 +10385,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>340.96</v>
+        <v>340.98</v>
       </c>
       <c r="C369" t="n">
         <v>334.66</v>
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>340.92</v>
+        <v>340.94</v>
       </c>
       <c r="C370" t="n">
         <v>334.65</v>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>341.18</v>
+        <v>341.2</v>
       </c>
       <c r="C371" t="n">
         <v>335.19</v>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>341.06</v>
+        <v>341.08</v>
       </c>
       <c r="C372" t="n">
         <v>335.31</v>
@@ -10493,7 +10493,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>342.13</v>
+        <v>342.16</v>
       </c>
       <c r="C373" t="n">
         <v>336.03</v>
@@ -10520,7 +10520,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>342.65</v>
+        <v>342.67</v>
       </c>
       <c r="C374" t="n">
         <v>336.29</v>
@@ -10547,7 +10547,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>343.2</v>
+        <v>343.21</v>
       </c>
       <c r="C375" t="n">
         <v>336.48</v>
@@ -10574,7 +10574,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>342.5</v>
+        <v>342.51</v>
       </c>
       <c r="C376" t="n">
         <v>336.2</v>
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>344.37</v>
+        <v>344.38</v>
       </c>
       <c r="C377" t="n">
         <v>338.29</v>
@@ -10628,7 +10628,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>345.02</v>
+        <v>345.03</v>
       </c>
       <c r="C378" t="n">
         <v>338.49</v>
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>346.6</v>
+        <v>346.61</v>
       </c>
       <c r="C380" t="n">
         <v>338.78</v>
@@ -10709,7 +10709,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>348.23</v>
+        <v>348.25</v>
       </c>
       <c r="C381" t="n">
         <v>341.69</v>
@@ -10736,7 +10736,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>350.86</v>
+        <v>350.88</v>
       </c>
       <c r="C382" t="n">
         <v>344.11</v>
@@ -10763,7 +10763,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>352.82</v>
+        <v>352.84</v>
       </c>
       <c r="C383" t="n">
         <v>345.29</v>
@@ -10790,7 +10790,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>352.51</v>
+        <v>352.53</v>
       </c>
       <c r="C384" t="n">
         <v>345.19</v>
@@ -10817,7 +10817,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>352.6</v>
+        <v>352.61</v>
       </c>
       <c r="C385" t="n">
         <v>345.8</v>
@@ -10844,7 +10844,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>352.82</v>
+        <v>352.85</v>
       </c>
       <c r="C386" t="n">
         <v>345.93</v>
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>353.21</v>
+        <v>353.25</v>
       </c>
       <c r="C387" t="n">
         <v>346.71</v>
@@ -10898,7 +10898,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>351.5</v>
+        <v>351.55</v>
       </c>
       <c r="C388" t="n">
         <v>344.62</v>
@@ -10925,7 +10925,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>351.43</v>
+        <v>351.48</v>
       </c>
       <c r="C389" t="n">
         <v>344.84</v>
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>350.38</v>
+        <v>350.42</v>
       </c>
       <c r="C390" t="n">
         <v>343.92</v>
@@ -10979,7 +10979,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>350.4</v>
+        <v>350.42</v>
       </c>
       <c r="C391" t="n">
         <v>343.61</v>
@@ -11006,7 +11006,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>350.06</v>
+        <v>350.08</v>
       </c>
       <c r="C392" t="n">
         <v>343.3</v>
@@ -11033,7 +11033,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>349.76</v>
+        <v>349.77</v>
       </c>
       <c r="C393" t="n">
         <v>342.77</v>
@@ -11060,7 +11060,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>349.12</v>
+        <v>349.13</v>
       </c>
       <c r="C394" t="n">
         <v>342.16</v>
@@ -11087,7 +11087,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>349.16</v>
+        <v>349.17</v>
       </c>
       <c r="C395" t="n">
         <v>342.15</v>
@@ -11114,7 +11114,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>349.12</v>
+        <v>349.13</v>
       </c>
       <c r="C396" t="n">
         <v>342.24</v>
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>345.77</v>
+        <v>345.78</v>
       </c>
       <c r="C399" t="n">
         <v>339.27</v>
@@ -11222,7 +11222,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>345.79</v>
+        <v>345.8</v>
       </c>
       <c r="C400" t="n">
         <v>338.97</v>
@@ -11249,7 +11249,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>346.4</v>
+        <v>346.41</v>
       </c>
       <c r="C401" t="n">
         <v>339.43</v>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>347.2</v>
+        <v>347.19</v>
       </c>
       <c r="C403" t="n">
         <v>340.51</v>
@@ -11330,7 +11330,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>348.52</v>
+        <v>348.54</v>
       </c>
       <c r="C404" t="n">
         <v>342.06</v>
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>347.79</v>
+        <v>347.81</v>
       </c>
       <c r="C405" t="n">
         <v>341.27</v>
@@ -11384,7 +11384,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>347.65</v>
+        <v>347.67</v>
       </c>
       <c r="C406" t="n">
         <v>340.44</v>
@@ -11438,7 +11438,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>348.57</v>
+        <v>348.56</v>
       </c>
       <c r="C408" t="n">
         <v>340.37</v>
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>347.09</v>
+        <v>347.08</v>
       </c>
       <c r="C411" t="n">
         <v>338.87</v>
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>346.6</v>
+        <v>346.61</v>
       </c>
       <c r="C412" t="n">
         <v>338.26</v>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>346.76</v>
+        <v>346.78</v>
       </c>
       <c r="C413" t="n">
         <v>338.65</v>
@@ -11627,7 +11627,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>347.95</v>
+        <v>347.94</v>
       </c>
       <c r="C415" t="n">
         <v>339.95</v>
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>348.59</v>
+        <v>348.57</v>
       </c>
       <c r="C416" t="n">
         <v>340.93</v>
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>348.76</v>
+        <v>348.74</v>
       </c>
       <c r="C417" t="n">
         <v>341.18</v>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>347.88</v>
+        <v>347.86</v>
       </c>
       <c r="C418" t="n">
         <v>340.86</v>
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>348.19</v>
+        <v>348.18</v>
       </c>
       <c r="C420" t="n">
         <v>341.33</v>
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>350.77</v>
+        <v>350.76</v>
       </c>
       <c r="C423" t="n">
         <v>344.02</v>
@@ -11858,6 +11858,33 @@
         <v>341.37</v>
       </c>
       <c r="G423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>350.09</v>
+      </c>
+      <c r="C424" t="n">
+        <v>343.19</v>
+      </c>
+      <c r="D424" t="n">
+        <v>337.79</v>
+      </c>
+      <c r="E424" t="n">
+        <v>332.19</v>
+      </c>
+      <c r="F424" t="n">
+        <v>339.79</v>
+      </c>
+      <c r="G424" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -11874,7 +11901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16752,6 +16779,16 @@
       </c>
       <c r="B487" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -16916,37 +16953,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1323</v>
+        <v>0.133</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2248829218044802</v>
+        <v>0.228878014708795</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1034884880215036</v>
+        <v>0.1066215366647465</v>
       </c>
       <c r="M2" t="n">
-        <v>3.5860543716971</v>
+        <v>3.596169246372031</v>
       </c>
       <c r="N2" t="n">
-        <v>21.09300020266506</v>
+        <v>21.18298060768008</v>
       </c>
       <c r="O2" t="n">
-        <v>4.592711639398348</v>
+        <v>4.602497214304434</v>
       </c>
       <c r="P2" t="n">
-        <v>336.1042800471588</v>
+        <v>336.0685650410003</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16997,34 +17034,34 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1624</v>
+        <v>0.1622</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1832890319244331</v>
+        <v>0.1873134604003567</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K3" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07551218890774636</v>
+        <v>0.07834242230587884</v>
       </c>
       <c r="M3" t="n">
-        <v>3.668738548820303</v>
+        <v>3.680694394977142</v>
       </c>
       <c r="N3" t="n">
-        <v>19.80243801163493</v>
+        <v>19.92044099214919</v>
       </c>
       <c r="O3" t="n">
-        <v>4.44999303500971</v>
+        <v>4.463232123937673</v>
       </c>
       <c r="P3" t="n">
-        <v>330.0021923185906</v>
+        <v>329.9559477012878</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17075,34 +17112,34 @@
         <v>0.135</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1096</v>
+        <v>0.1098</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1831</v>
+        <v>0.1838</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1495213180670215</v>
+        <v>0.1521410982421884</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0562626971144996</v>
+        <v>0.05818202070679701</v>
       </c>
       <c r="M4" t="n">
-        <v>3.509808155811635</v>
+        <v>3.513775293760508</v>
       </c>
       <c r="N4" t="n">
-        <v>18.11484715404344</v>
+        <v>18.14205133367384</v>
       </c>
       <c r="O4" t="n">
-        <v>4.256154033166967</v>
+        <v>4.259348698295767</v>
       </c>
       <c r="P4" t="n">
-        <v>328.4149383054244</v>
+        <v>328.3848532237467</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17156,31 +17193,31 @@
         <v>0.1112</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1559</v>
+        <v>0.1557</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1720512357191626</v>
+        <v>0.1725574779586889</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K5" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04920125245752649</v>
+        <v>0.04969536359583471</v>
       </c>
       <c r="M5" t="n">
-        <v>4.399612869279658</v>
+        <v>4.391687111376711</v>
       </c>
       <c r="N5" t="n">
-        <v>27.5416282976071</v>
+        <v>27.47912608576248</v>
       </c>
       <c r="O5" t="n">
-        <v>5.248011842365364</v>
+        <v>5.242053613400238</v>
       </c>
       <c r="P5" t="n">
-        <v>326.6251552995789</v>
+        <v>326.6193380813653</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17231,34 +17268,34 @@
         <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1067</v>
+        <v>0.1061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1699</v>
+        <v>0.1684</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04896237760812423</v>
+        <v>-0.04902455930176316</v>
       </c>
       <c r="J6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005062711715853929</v>
+        <v>0.00509945207824325</v>
       </c>
       <c r="M6" t="n">
-        <v>3.829935163512131</v>
+        <v>3.821196108452106</v>
       </c>
       <c r="N6" t="n">
-        <v>22.68292647015396</v>
+        <v>22.62934187820743</v>
       </c>
       <c r="O6" t="n">
-        <v>4.762659600491511</v>
+        <v>4.757030783819611</v>
       </c>
       <c r="P6" t="n">
-        <v>341.2071495291057</v>
+        <v>341.2078640575518</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17296,7 +17333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G423"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17349,7 +17386,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-45.10190397202979,170.97255462650972</t>
+          <t>-45.101903993315474,170.97255589680083</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17386,7 +17423,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-45.10190602816343,170.97267733663676</t>
+          <t>-45.10190602603501,170.9726772096076</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -17423,7 +17460,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-45.101906455975936,170.97270286949094</t>
+          <t>-45.101906441077084,170.97270198028704</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -17460,7 +17497,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-45.1019050448116,170.972618649183</t>
+          <t>-45.10190503416911,170.97261801403744</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -17497,7 +17534,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-45.101905715282044,170.97265866335567</t>
+          <t>-45.10190570463976,170.97265802821008</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -17534,7 +17571,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-45.10190603454875,170.9726777177241</t>
+          <t>-45.10190602603501,170.9726772096076</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -17571,7 +17608,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-45.10190608988798,170.97268102048133</t>
+          <t>-45.101906077117384,170.9726802583066</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -17608,7 +17645,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-45.10190488517372,170.97260912199928</t>
+          <t>-45.1019048787882,170.9726087409119</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -17645,7 +17682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-45.10190495754299,170.97261344098922</t>
+          <t>-45.10190496180001,170.97261369504744</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -17682,7 +17719,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-45.101905083124585,170.97262093570714</t>
+          <t>-45.10190509376706,170.9726215708527</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -17719,7 +17756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-45.101905370470426,170.97263808463813</t>
+          <t>-45.10190538324129,170.97263884681283</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -17756,7 +17793,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-45.10190521296265,170.9726286844833</t>
+          <t>-45.10190521934811,170.9726290655707</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -17793,7 +17830,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-45.1019057493373,170.97266069582165</t>
+          <t>-45.101905745080394,170.9726604417634</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -17830,7 +17867,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-45.10190716898406,170.97274542424924</t>
+          <t>-45.10190717536914,170.97274580533664</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -17867,7 +17904,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-45.10190706043758,170.97273894576355</t>
+          <t>-45.1019070710794,170.97273958090923</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -17904,7 +17941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-45.10190693273537,170.9727313240157</t>
+          <t>-45.10190694550561,170.9727320861905</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -17941,7 +17978,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-45.10190697317445,170.9727337375692</t>
+          <t>-45.10190698594469,170.97273449974398</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -17978,7 +18015,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-45.10190664753191,170.97271430211242</t>
+          <t>-45.101906658173874,170.97271493725808</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -18015,7 +18052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-45.101906722025596,170.9727187481319</t>
+          <t>-45.10190672841077,170.9727191292193</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -18089,7 +18126,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-45.10190461910883,170.97259324335982</t>
+          <t>-45.1019046169803,170.97259311633076</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -18126,7 +18163,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-45.10190459143794,170.97259159198137</t>
+          <t>-45.10190458930943,170.97259146495225</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -18163,7 +18200,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-45.10190535557108,170.9726371954343</t>
+          <t>-45.10190533002932,170.97263567108487</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -18237,7 +18274,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-45.10190447224005,170.972584478351</t>
+          <t>-45.10190447436859,170.9725846053801</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -18311,7 +18348,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-45.10190383154378,170.9725462425885</t>
+          <t>-45.101903827286634,170.9725459885303</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -18348,7 +18385,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-45.10190459143794,170.97259159198137</t>
+          <t>-45.10190458505236,170.97259121089402</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -18385,7 +18422,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-45.10190463400852,170.97259413256364</t>
+          <t>-45.10190462762295,170.9725937514763</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -18422,7 +18459,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-45.10190482131834,170.97260531112576</t>
+          <t>-45.10190481493281,170.97260493003844</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -18459,7 +18496,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-45.10190581957617,170.97266488778266</t>
+          <t>-45.10190581106238,170.97266437966618</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -18496,7 +18533,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-45.10190588342957,170.97266869865635</t>
+          <t>-45.101905877044224,170.97266831756897</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -18533,7 +18570,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-45.101905464123334,170.9726436739194</t>
+          <t>-45.101905468380274,170.97264392797763</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -18570,7 +18607,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-45.10190577487873,170.9726622201711</t>
+          <t>-45.10190577700718,170.9726623472002</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -18644,7 +18681,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-45.10190526617482,170.9726318602113</t>
+          <t>-45.10190527256028,170.97263224129867</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -18681,7 +18718,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-45.101905121437504,170.97262322223125</t>
+          <t>-45.10190512782299,170.9726236033186</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -18718,7 +18755,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-45.101904629751466,170.97259387850542</t>
+          <t>-45.10190464039411,170.972594513651</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -18755,7 +18792,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-45.10190480641874,170.97260442192197</t>
+          <t>-45.10190481493281,170.97260493003844</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -18792,7 +18829,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-45.101904599952064,170.97259210009784</t>
+          <t>-45.1019046105947,170.9725927352434</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -18829,7 +18866,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-45.101904527581986,170.97258778110796</t>
+          <t>-45.10190453396759,170.97258816219528</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -18866,7 +18903,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-45.1019045807953,170.9725909568358</t>
+          <t>-45.10190458718089,170.97259133792315</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -18903,7 +18940,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-45.10190450629664,170.9725865108168</t>
+          <t>-45.10190451268224,170.97258689190414</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -18940,7 +18977,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-45.101904510553716,170.97258676487502</t>
+          <t>-45.101904514810784,170.97258701893327</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -18977,7 +19014,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-45.10190401885831,170.97255742115016</t>
+          <t>-45.10190402098688,170.97255754817928</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -19014,7 +19051,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-45.101904257257026,170.97257164841062</t>
+          <t>-45.10190425512847,170.9725715213815</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -19051,7 +19088,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-45.1019041103866,170.9725628834019</t>
+          <t>-45.101904112515165,170.97256301043103</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -19088,7 +19125,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-45.101904516939314,170.97258714596236</t>
+          <t>-45.10190452119639,170.97258740002061</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -19125,7 +19162,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-45.10190487665968,170.97260861388278</t>
+          <t>-45.10190488091671,170.972608867941</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -19162,7 +19199,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-45.10190480641874,170.97260442192197</t>
+          <t>-45.10190481706132,170.97260505706754</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -19199,7 +19236,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-45.10190496180001,170.97261369504744</t>
+          <t>-45.101904974571035,170.97261445722214</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -19236,7 +19273,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-45.10190496180001,170.97261369504744</t>
+          <t>-45.101904974571035,170.97261445722214</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -19273,7 +19310,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-45.10190515336491,170.972625127668</t>
+          <t>-45.101905166135865,170.9726258898427</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -19310,7 +19347,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-45.10190486388862,170.9726078517081</t>
+          <t>-45.101904870274154,170.97260823279544</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -19347,7 +19384,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-45.101905040554605,170.97261839512478</t>
+          <t>-45.1019050511971,170.97261903027035</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -19384,7 +19421,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-45.10190467019346,170.9725962920586</t>
+          <t>-45.10190468083608,170.97259692720417</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -19421,7 +19458,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-45.10190467232198,170.9725964190877</t>
+          <t>-45.10190468083608,170.97259692720417</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -19458,7 +19495,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-45.10190445095467,170.97258320805986</t>
+          <t>-45.10190445946883,170.9725837161763</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -19495,7 +19532,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-45.101904261514115,170.97257190246884</t>
+          <t>-45.10190426577123,170.97257215652704</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -19532,7 +19569,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-45.1019038890154,170.97254967237444</t>
+          <t>-45.10190388475825,170.97254941831625</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -19569,7 +19606,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-45.10190522786207,170.97262957368716</t>
+          <t>-45.10190523211904,170.9726298277454</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -19606,7 +19643,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-45.101904612723246,170.9725928622725</t>
+          <t>-45.1019046105947,170.9725927352434</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -19643,7 +19680,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-45.10190491922987,170.97261115446514</t>
+          <t>-45.101904923486906,170.97261140852336</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -19717,7 +19754,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-45.101904495653955,170.97258587567126</t>
+          <t>-45.101904502039574,170.97258625675858</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -19754,7 +19791,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-45.10190480641874,170.97260442192197</t>
+          <t>-45.10190481493281,170.97260493003844</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -19791,7 +19828,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-45.10190452119639,170.97258740002061</t>
+          <t>-45.10190452545346,170.97258765407884</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -19828,7 +19865,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-45.10190422958583,170.97256999703214</t>
+          <t>-45.101904235971496,170.97257037811949</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -19865,7 +19902,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-45.101903906044,170.97255068860733</t>
+          <t>-45.101903910301154,170.97255094266555</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -19902,7 +19939,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-45.101904114643716,170.97256313746016</t>
+          <t>-45.10190411890084,170.97256339151838</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -19939,7 +19976,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-45.1019045807953,170.9725909568358</t>
+          <t>-45.10190458292384,170.9725910838649</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -19976,7 +20013,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-45.10190478513358,170.9726031516308</t>
+          <t>-45.101904780876545,170.97260289757259</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -20013,7 +20050,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-45.101905087381574,170.97262118976536</t>
+          <t>-45.10190507248209,170.97262030056154</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -20087,7 +20124,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-45.101904150829235,170.97256529695503</t>
+          <t>-45.10190414870068,170.9725651699259</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -20124,7 +20161,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-45.101904006086905,170.9725566589755</t>
+          <t>-45.101904003958325,170.97255653194637</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -20198,7 +20235,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-45.10190367615704,170.9725369694636</t>
+          <t>-45.10190367828564,170.9725370964927</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -20383,7 +20420,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-45.101903195091985,170.97250826088555</t>
+          <t>-45.101903197220594,170.97250838791464</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -20420,7 +20457,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-45.10190347606891,170.9725250287275</t>
+          <t>-45.10190347394031,170.9725249016984</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -20457,7 +20494,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-45.10190217972299,170.97244766800424</t>
+          <t>-45.10190219675249,170.97244868423698</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -20494,7 +20531,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-45.10190270124776,170.97247879013364</t>
+          <t>-45.10190270763372,170.97247917122093</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -20531,7 +20568,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-45.101902424521384,170.97246227635057</t>
+          <t>-45.101902428778736,170.97246253040876</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -20568,7 +20605,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-45.10190271614834,170.97247967933734</t>
+          <t>-45.10190272679161,170.97248031448285</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -20605,7 +20642,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-45.10190264803133,170.9724756144061</t>
+          <t>-45.10190265654597,170.9724761225225</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -20642,7 +20679,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-45.10190289921209,170.9724906038401</t>
+          <t>-45.10190290772665,170.97249111195651</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -20679,7 +20716,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-45.10190298222902,170.97249555797512</t>
+          <t>-45.10190298435766,170.97249568500425</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -20753,7 +20790,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-45.10190371872885,170.97253951004575</t>
+          <t>-45.10190371660025,170.97253938301662</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -20790,7 +20827,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-45.101904144443566,170.9725649158677</t>
+          <t>-45.10190414231501,170.97256478883858</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -20827,7 +20864,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-45.101904936257924,170.97261217069806</t>
+          <t>-45.10190492987242,170.9726117896107</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -20864,7 +20901,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-45.10190402950114,170.9725580562957</t>
+          <t>-45.10190402524402,170.9725578022375</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -20938,7 +20975,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-45.10190274169218,170.97248120368656</t>
+          <t>-45.10190274382084,170.97248133071568</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -21012,7 +21049,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-45.10190309078929,170.97250203645945</t>
+          <t>-45.101903099303826,170.97250254457583</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -21049,7 +21086,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-45.10190333983799,170.9725168988647</t>
+          <t>-45.10190334835243,170.9725174069811</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -21086,7 +21123,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-45.10190345052566,170.97252350437822</t>
+          <t>-45.10190345691148,170.97252388546553</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -21123,7 +21160,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-45.101903465425906,170.97252439358198</t>
+          <t>-45.10190347181171,170.9725247746693</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -21160,7 +21197,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-45.10190315890537,170.97250610139076</t>
+          <t>-45.10190316529125,170.97250648247808</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21197,7 +21234,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-45.10190334835243,170.9725174069811</t>
+          <t>-45.10190335473826,170.97251778806842</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21234,7 +21271,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-45.10190387837252,170.9725490372289</t>
+          <t>-45.10190388262968,170.97254929128712</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21271,7 +21308,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-45.10190377620066,170.97254293983167</t>
+          <t>-45.10190378045782,170.9725431938899</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21308,7 +21345,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-45.10190401885831,170.97255742115016</t>
+          <t>-45.10190402098688,170.97255754817928</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21345,7 +21382,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-45.10190419552895,170.97256796456637</t>
+          <t>-45.101904193400394,170.97256783753724</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -21382,7 +21419,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-45.10190441689803,170.97258117559406</t>
+          <t>-45.10190441264094,170.9725809215358</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -21419,7 +21456,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-45.101904748948776,170.97260099213585</t>
+          <t>-45.10190474256322,170.9726006110485</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -21456,7 +21493,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-45.10190497244253,170.97261433019304</t>
+          <t>-45.10190496392851,170.97261382207657</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -21493,7 +21530,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-45.101904870274154,170.97260823279544</t>
+          <t>-45.1019048617601,170.972607724679</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -21530,7 +21567,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-45.10190485750307,170.97260747062074</t>
+          <t>-45.101904851117546,170.9726070895334</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -21567,7 +21604,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-45.10190476810545,170.9726021353979</t>
+          <t>-45.101904761719894,170.97260175431055</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -21604,7 +21641,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-45.101903184448865,170.97250762574004</t>
+          <t>-45.10190319296334,170.97250813385645</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -21637,7 +21674,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-45.101903648485354,170.9725353180852</t>
+          <t>-45.101903659128325,170.9725359532307</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -21670,7 +21707,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-45.10190535982804,170.9726374494925</t>
+          <t>-45.1019053725989,170.97263821166723</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -21707,7 +21744,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-45.10190457653823,170.97259070277755</t>
+          <t>-45.101904595695004,170.9725918460396</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -21744,7 +21781,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-45.10190486388862,170.9726078517081</t>
+          <t>-45.1019048787882,170.9726087409119</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -21781,7 +21818,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-45.10190463826557,170.97259438662186</t>
+          <t>-45.101904642522626,170.9725946406801</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -21818,7 +21855,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-45.10190504694011,170.97261877621213</t>
+          <t>-45.1019050511971,170.97261903027035</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -21855,7 +21892,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-45.10190477236249,170.97260238945614</t>
+          <t>-45.101904774491,170.97260251648524</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -21892,7 +21929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-45.10190535982804,170.9726374494925</t>
+          <t>-45.101905353442596,170.9726370684052</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -21929,7 +21966,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-45.10190532151539,170.97263516296837</t>
+          <t>-45.1019053087445,170.97263440079365</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -21966,7 +22003,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-45.10190554926209,170.97264875508424</t>
+          <t>-45.1019055556475,170.97264913617158</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -22003,7 +22040,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-45.101905087381574,170.97262118976536</t>
+          <t>-45.10190509589555,170.97262169788183</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -22040,7 +22077,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-45.101905087381574,170.97262118976536</t>
+          <t>-45.10190509589555,170.97262169788183</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -22077,7 +22114,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-45.10190399544406,170.97255602382995</t>
+          <t>-45.101904010344036,170.9725569130337</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -22114,7 +22151,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-45.10190464465116,170.9725947677092</t>
+          <t>-45.101904655293794,170.97259540285478</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -22151,7 +22188,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-45.10190481493281,170.97260493003844</t>
+          <t>-45.101904825575396,170.972605565184</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -22188,7 +22225,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-45.10190448501128,170.9725852405257</t>
+          <t>-45.101904491396894,170.972585621613</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -22225,7 +22262,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-45.10190447436859,170.9725846053801</t>
+          <t>-45.10190447649713,170.97258473240922</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -22262,7 +22299,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-45.10190456802412,170.9725901946611</t>
+          <t>-45.10190456589558,170.97259006763198</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -22299,7 +22336,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-45.101904636137036,170.97259425959277</t>
+          <t>-45.10190463826557,170.97259438662186</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -22336,7 +22373,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-45.101904516939314,170.97258714596236</t>
+          <t>-45.10190452119639,170.97258740002061</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -22373,7 +22410,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-45.1019046489082,170.97259502176743</t>
+          <t>-45.10190465316524,170.97259527582568</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -22410,7 +22447,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-45.10190472766359,170.9725997218447</t>
+          <t>-45.10190473192061,170.97259997590294</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -22447,7 +22484,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-45.10190477874802,170.9726027705435</t>
+          <t>-45.101904780876545,170.97260289757259</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -22484,7 +22521,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-45.10190479790469,170.9726039138055</t>
+          <t>-45.101904795776164,170.9726037867764</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -22521,7 +22558,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-45.10190456589558,170.97259006763198</t>
+          <t>-45.10190456376706,170.9725899406029</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -22558,7 +22595,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-45.101904748948776,170.97260099213585</t>
+          <t>-45.101904746820246,170.97260086510673</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -22595,7 +22632,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-45.10190496180001,170.97261369504744</t>
+          <t>-45.1019049596715,170.97261356801835</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -22669,7 +22706,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-45.10190524063299,170.97263033586185</t>
+          <t>-45.10190524488997,170.97263058992013</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -22743,7 +22780,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-45.10190555777596,170.97264926320068</t>
+          <t>-45.1019055556475,170.97264913617158</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -22817,7 +22854,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-45.10190567058444,170.97265599574413</t>
+          <t>-45.10190567484137,170.97265624980236</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -22854,7 +22891,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-45.10190567058444,170.97265599574413</t>
+          <t>-45.10190567484137,170.97265624980236</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -22891,7 +22928,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-45.10190577487873,170.9726622201711</t>
+          <t>-45.10190578552098,170.9726628553167</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -22928,7 +22965,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-45.101905915356205,170.9726706040932</t>
+          <t>-45.10190592599842,170.97267123923882</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -22965,7 +23002,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-45.101906113300714,170.9726824178017</t>
+          <t>-45.101906119685985,170.97268279888908</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -23002,7 +23039,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-45.10190540239758,170.97263999007492</t>
+          <t>-45.101905410911485,170.9726404981914</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -23076,7 +23113,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-45.1019050426831,170.9726185221539</t>
+          <t>-45.10190504906861,170.97261890324125</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -23113,7 +23150,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-45.10190488517372,170.97260912199928</t>
+          <t>-45.10190489368777,170.97260963011573</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -23150,7 +23187,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-45.10190482983242,170.97260581924223</t>
+          <t>-45.10190483408944,170.97260607330045</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -23187,7 +23224,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-45.10190498308506,170.97261496533864</t>
+          <t>-45.10190498734205,170.97261521939686</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -23224,7 +23261,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-45.10190524701844,170.97263071694923</t>
+          <t>-45.101905251275426,170.97263097100745</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -23298,7 +23335,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-45.10190485324606,170.97260721656252</t>
+          <t>-45.10190485537458,170.97260734359165</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -23335,7 +23372,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-45.10190505758259,170.97261941135773</t>
+          <t>-45.101905063968104,170.97261979244507</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -23372,7 +23409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-45.101904976699544,170.97261458425126</t>
+          <t>-45.10190498308506,170.97261496533864</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -23409,7 +23446,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-45.10190496392851,170.97261382207657</t>
+          <t>-45.10190496818553,170.9726140761348</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -23446,7 +23483,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-45.10190508951006,170.9726213167945</t>
+          <t>-45.10190509589555,170.97262169788183</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -23483,7 +23520,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-45.101905172521334,170.97262627093008</t>
+          <t>-45.10190517677832,170.9726265249883</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -23520,7 +23557,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-45.10190510228105,170.97262207896918</t>
+          <t>-45.10190510653804,170.97262233302743</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -23594,7 +23631,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-45.10190521083416,170.97262855745421</t>
+          <t>-45.101905206577186,170.97262830339596</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -23631,7 +23668,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-45.101905004370096,170.97261623562977</t>
+          <t>-45.10190500224159,170.97261610860068</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -23705,7 +23742,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-45.10190497244253,170.97261433019304</t>
+          <t>-45.101904974571035,170.97261445722214</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -23742,7 +23779,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-45.10190468722165,170.9725973082915</t>
+          <t>-45.10190468296461,170.9725970542333</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -23779,7 +23816,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-45.10190468722165,170.9725973082915</t>
+          <t>-45.10190468296461,170.9725970542333</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -23816,7 +23853,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-45.10190431685642,170.97257520522575</t>
+          <t>-45.10190431259932,170.97257495116753</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -23853,7 +23890,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-45.10190431685642,170.97257520522575</t>
+          <t>-45.10190431259932,170.97257495116753</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -23890,7 +23927,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-45.101904231714386,170.97257012406126</t>
+          <t>-45.10190422958583,170.97256999703214</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -23927,7 +23964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-45.10190391668689,170.97255132375287</t>
+          <t>-45.10190391242974,170.97255106969467</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -23964,7 +24001,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-45.101904069943885,170.97256046984882</t>
+          <t>-45.101904065686774,170.9725602157906</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -24001,7 +24038,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-45.10190390391544,170.97255056157823</t>
+          <t>-45.101903899658296,170.97255030752</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -24038,7 +24075,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-45.10190372724319,170.9725400181622</t>
+          <t>-45.101903722986016,170.97253976410394</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -24075,7 +24112,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-45.101903795357906,170.97254408309365</t>
+          <t>-45.10190379110074,170.97254382903546</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -24112,7 +24149,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-45.101903795357906,170.97254408309365</t>
+          <t>-45.10190379110074,170.97254382903546</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -24149,7 +24186,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-45.10190381238656,170.9725450993265</t>
+          <t>-45.10190380600083,170.9725447182392</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -24186,7 +24223,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-45.10190396777264,170.97255437245153</t>
+          <t>-45.10190396138693,170.97255399136418</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -24223,7 +24260,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-45.10190393584405,170.97255246701488</t>
+          <t>-45.10190392945833,170.97255208592753</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -24260,7 +24297,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-45.10190390391544,170.97255056157823</t>
+          <t>-45.10190389327257,170.9725499264327</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -24297,7 +24334,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-45.10190399970119,170.97255627788817</t>
+          <t>-45.101903993315474,170.97255589680083</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -24334,7 +24371,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-45.10190404227254,170.97255881847036</t>
+          <t>-45.10190403588685,170.97255843738304</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -24371,7 +24408,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-45.10190400821547,170.97255678600462</t>
+          <t>-45.10190400182976,170.9725564049173</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -24408,7 +24445,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-45.10190427641398,170.97257279167263</t>
+          <t>-45.101904270028335,170.9725724105853</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -24445,7 +24482,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-45.10190432749916,170.9725758403713</t>
+          <t>-45.101904321113516,170.97257545928397</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -24482,7 +24519,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-45.10190445734028,170.97258358914718</t>
+          <t>-45.10190445308321,170.97258333508898</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -24519,7 +24556,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-45.10190442966927,170.97258193776872</t>
+          <t>-45.10190442754074,170.9725818107396</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -24593,7 +24630,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-45.101904267899776,170.97257228355616</t>
+          <t>-45.10190426577123,170.97257215652704</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -24630,7 +24667,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-45.101904387098436,170.97257939718648</t>
+          <t>-45.10190438922698,170.97257952421558</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -24667,7 +24704,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-45.10190383154378,170.9725462425885</t>
+          <t>-45.10190383792953,170.9725466236758</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -24704,7 +24741,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-45.101903601656296,170.9725325234448</t>
+          <t>-45.10190361017067,170.97253303156126</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -24741,7 +24778,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-45.10190349735495,170.97252629901857</t>
+          <t>-45.10190350586935,170.972526807135</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -24778,7 +24815,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-45.10190371660025,170.97253938301662</t>
+          <t>-45.101903722986016,170.97253976410394</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -24815,7 +24852,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-45.10190369957154,170.97253836678377</t>
+          <t>-45.10190370595731,170.9725387478711</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -24889,7 +24926,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-45.10190394648692,170.97255310216042</t>
+          <t>-45.10190394435834,170.97255297513132</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -24963,7 +25000,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-45.10190381664372,170.97254535338476</t>
+          <t>-45.10190381451514,170.97254522635563</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -25000,7 +25037,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-45.10190381664372,170.97254535338476</t>
+          <t>-45.10190381451514,170.97254522635563</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -25037,7 +25074,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-45.10190384431528,170.97254700476316</t>
+          <t>-45.101903846443854,170.97254713179225</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -25074,7 +25111,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-45.10190384431528,170.97254700476316</t>
+          <t>-45.101903846443854,170.97254713179225</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -25111,7 +25148,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-45.10190390391544,170.97255056157823</t>
+          <t>-45.10190390178687,170.9725504345491</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -25148,7 +25185,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-45.101903955001205,170.97255361027686</t>
+          <t>-45.10190395074407,170.97255335621864</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -25185,7 +25222,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-45.101903784714985,170.9725434479481</t>
+          <t>-45.101903782586405,170.972543320919</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -25222,7 +25259,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-45.10190360378489,170.97253265047394</t>
+          <t>-45.101903601656296,170.9725325234448</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -25259,7 +25296,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-45.10190429769948,170.97257406196374</t>
+          <t>-45.10190429982803,170.97257418899287</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -25296,7 +25333,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-45.10190416785771,170.9725663131879</t>
+          <t>-45.101904169986284,170.97256644021704</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -25333,7 +25370,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-45.101904357298814,170.9725776187789</t>
+          <t>-45.10190435942736,170.972577745808</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -25370,7 +25407,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-45.10190439135552,170.9725796512447</t>
+          <t>-45.10190439348406,170.97257977827383</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -25407,7 +25444,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-45.10190475959136,170.97260162728145</t>
+          <t>-45.1019047638484,170.97260188133964</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -25444,7 +25481,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-45.10190475107729,170.97260111916495</t>
+          <t>-45.10190475959136,170.97260162728145</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -25481,7 +25518,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-45.10190443605488,170.97258231885607</t>
+          <t>-45.101904446697596,170.97258295400164</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -25518,7 +25555,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-45.101904712763925,170.9725988326409</t>
+          <t>-45.10190471914949,170.97259921372824</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -25555,7 +25592,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-45.101904712763925,170.9725988326409</t>
+          <t>-45.10190471914949,170.97259921372824</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -25592,7 +25629,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-45.10190432962772,170.97257596740042</t>
+          <t>-45.1019043338848,170.97257622145864</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -25629,7 +25666,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-45.10190424661426,170.97257101326505</t>
+          <t>-45.10190425299992,170.97257139435237</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -25666,7 +25703,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-45.1019039401012,170.97255272107307</t>
+          <t>-45.10190394435834,170.97255297513132</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -25703,7 +25740,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-45.10190369957154,170.97253836678377</t>
+          <t>-45.10190370382872,170.972538620842</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -25777,7 +25814,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-45.10190375917197,170.9725419235988</t>
+          <t>-45.10190376342915,170.97254217765703</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -25814,7 +25851,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-45.10190375917197,170.9725419235988</t>
+          <t>-45.10190376342915,170.97254217765703</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -25888,7 +25925,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-45.10190422745727,170.97256987000304</t>
+          <t>-45.10190421894307,170.9725693618866</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -25999,7 +26036,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-45.10190420404317,170.9725684726828</t>
+          <t>-45.10190419978607,170.9725682186246</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -26036,7 +26073,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-45.10190411677228,170.97256326448925</t>
+          <t>-45.1019041210294,170.97256351854747</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -26073,7 +26110,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-45.10190411677228,170.97256326448925</t>
+          <t>-45.1019041210294,170.97256351854747</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -26110,7 +26147,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-45.10190410612947,170.97256262934368</t>
+          <t>-45.10190410400091,170.97256250231456</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -26147,7 +26184,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-45.101904031629715,170.97255818332482</t>
+          <t>-45.10190403375828,170.97255831035395</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -26184,7 +26221,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-45.10190401672975,170.97255729412103</t>
+          <t>-45.10190401460117,170.97255716709194</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -26221,7 +26258,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-45.101904150829235,170.97256529695503</t>
+          <t>-45.1019041529578,170.97256542398415</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -26295,7 +26332,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-45.101904444569065,170.9725828269725</t>
+          <t>-45.101904446697596,170.97258295400164</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -26332,7 +26369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-45.101904444569065,170.9725828269725</t>
+          <t>-45.101904446697596,170.97258295400164</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -26369,7 +26406,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-45.101904133800765,170.97256428072214</t>
+          <t>-45.10190413592933,170.97256440775124</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -26406,7 +26443,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-45.101904270028335,170.9725724105853</t>
+          <t>-45.10190427428544,170.9725726646435</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -26443,7 +26480,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-45.10190418488617,170.9725673294208</t>
+          <t>-45.101904189143276,170.97256758347905</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -26480,7 +26517,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-45.10190418488617,170.9725673294208</t>
+          <t>-45.101904189143276,170.97256758347905</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -26517,7 +26554,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-45.10190435942736,170.972577745808</t>
+          <t>-45.10190436368445,170.97257799986622</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -26554,7 +26591,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-45.10190439348406,170.97257977827383</t>
+          <t>-45.10190439774114,170.97258003233202</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -26591,7 +26628,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-45.1019043956126,170.97257990530292</t>
+          <t>-45.10190439986969,170.97258015936114</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -26628,7 +26665,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-45.10190517677832,170.9726265249883</t>
+          <t>-45.10190517890681,170.97262665201742</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -26665,7 +26702,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-45.10190565568522,170.9726551065403</t>
+          <t>-45.10190565994216,170.9726553605985</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -26702,7 +26739,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-45.10190580254859,170.97266387154968</t>
+          <t>-45.10190580680548,170.9726641256079</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -26739,7 +26776,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-45.10190572379586,170.97265917147215</t>
+          <t>-45.10190572592432,170.9726592985013</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -26776,7 +26813,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-45.10190522573358,170.97262944665803</t>
+          <t>-45.10190522786207,170.97262957368716</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -26813,7 +26850,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-45.101905221476606,170.9726291925998</t>
+          <t>-45.10190522573358,170.97262944665803</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -26850,7 +26887,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-45.10190542581081,170.97264138739524</t>
+          <t>-45.10190543006775,170.9726416414535</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -26887,7 +26924,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-45.10190541303996,170.97264062522052</t>
+          <t>-45.101905419425385,170.9726410063079</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -26924,7 +26961,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-45.101905378984334,170.9726385927546</t>
+          <t>-45.10190538536977,170.97263897384198</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -26961,7 +26998,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-45.10190526404634,170.97263173318217</t>
+          <t>-45.10190527256028,170.97263224129867</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -26998,7 +27035,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-45.101904542481726,170.97258867031175</t>
+          <t>-45.101904548867324,170.97258905139907</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -27035,7 +27072,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-45.101904267899776,170.97257228355616</t>
+          <t>-45.10190427215688,170.97257253761438</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -27072,7 +27109,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-45.101904082715286,170.97256123202348</t>
+          <t>-45.10190408484384,170.97256135905258</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -27109,7 +27146,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-45.101903908172595,170.97255081563642</t>
+          <t>-45.101903910301154,170.97255094266555</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -27146,7 +27183,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-45.101903871986785,170.97254865614158</t>
+          <t>-45.101903876243945,170.97254891019978</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -27183,7 +27220,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-45.10190324192163,170.97251105552584</t>
+          <t>-45.1019032483075,170.97251143661316</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -27220,7 +27257,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-45.10190325682196,170.97251194472958</t>
+          <t>-45.10190326320782,170.9725123258169</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -27257,7 +27294,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-45.10190342285378,170.97252185299982</t>
+          <t>-45.10190343136821,170.97252236111626</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -27294,7 +27331,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-45.10190347394031,170.9725249016984</t>
+          <t>-45.10190348245472,170.9725254098148</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -27331,7 +27368,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-45.10190343775402,170.97252274220358</t>
+          <t>-45.10190344413985,170.9725231232909</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -27368,7 +27405,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-45.101903499483555,170.9725264260477</t>
+          <t>-45.10190350586935,170.972526807135</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -27405,7 +27442,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-45.10190357824174,170.97253112612464</t>
+          <t>-45.10190358675613,170.97253163424105</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -27442,7 +27479,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-45.10190347606891,170.9725250287275</t>
+          <t>-45.10190348671193,170.97252566387303</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -27479,7 +27516,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-45.101903499483555,170.9725264260477</t>
+          <t>-45.10190350799795,170.97252693416408</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -27516,7 +27553,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-45.101903499483555,170.9725264260477</t>
+          <t>-45.10190350799795,170.97252693416408</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -27553,7 +27590,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-45.10190362719943,170.9725340477941</t>
+          <t>-45.10190363358521,170.97253442888143</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -27590,7 +27627,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-45.10190376130056,170.9725420506279</t>
+          <t>-45.1019037698149,170.97254255874435</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -27627,7 +27664,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-45.101903501612156,170.97252655307676</t>
+          <t>-45.10190350586935,170.972526807135</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -27664,7 +27701,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-45.10190372724319,170.9725400181622</t>
+          <t>-45.10190372937177,170.9725401451913</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -27701,7 +27738,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-45.10190427641398,170.97257279167263</t>
+          <t>-45.10190428279963,170.97257317275995</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -27738,7 +27775,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-45.10190438284134,170.97257914312823</t>
+          <t>-45.10190438922698,170.97257952421558</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -27775,7 +27812,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-45.10190448288274,170.97258511349656</t>
+          <t>-45.101904491396894,170.972585621613</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -27812,7 +27849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-45.10190468296461,170.9725970542333</t>
+          <t>-45.10190469360722,170.97259768937886</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -27849,7 +27886,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-45.101904859631595,170.97260759764987</t>
+          <t>-45.10190486814563,170.9726081057663</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -27886,7 +27923,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-45.10190520870568,170.9726284304251</t>
+          <t>-45.101905217219624,170.97262893854156</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -27923,7 +27960,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-45.101904985213565,170.97261509236773</t>
+          <t>-45.101904995856074,170.97261572751333</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -27960,7 +27997,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-45.10190523424753,170.9726299547745</t>
+          <t>-45.10190524063299,170.97263033586185</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -27997,7 +28034,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-45.101905306616004,170.97263427376456</t>
+          <t>-45.101905310872986,170.97263452782278</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -28034,7 +28071,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-45.10190549179345,170.97264532529798</t>
+          <t>-45.101905496050385,170.9726455793562</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -28071,7 +28108,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-45.10190565355678,170.97265497951113</t>
+          <t>-45.101905657813695,170.97265523356938</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -28108,7 +28145,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-45.10190556841827,170.9726498983463</t>
+          <t>-45.101905572675214,170.97265015240455</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -28145,7 +28182,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-45.101905683355184,170.97265675791886</t>
+          <t>-45.10190568974056,170.97265713900623</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -28182,7 +28219,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-45.10190556628982,170.97264977131718</t>
+          <t>-45.10190557054675,170.97265002537543</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -28219,7 +28256,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-45.101905668455984,170.97265586871498</t>
+          <t>-45.10190567484137,170.97265624980236</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -28256,7 +28293,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-45.10190575785111,170.97266120393812</t>
+          <t>-45.101905759979566,170.97266133096724</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -28330,7 +28367,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-45.10190534067171,170.97263630623047</t>
+          <t>-45.101905342800194,170.97263643325957</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -28404,7 +28441,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-45.10190560034524,170.97265180378312</t>
+          <t>-45.10190560247371,170.97265193081222</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -28515,7 +28552,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-45.101905202320204,170.97262804933774</t>
+          <t>-45.10190520019173,170.97262792230862</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -28552,7 +28589,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-45.10190514485093,170.97262461955154</t>
+          <t>-45.10190513846546,170.9726242384642</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -28589,7 +28626,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-45.10190531300146,170.97263465485193</t>
+          <t>-45.1019053087445,170.97263440079365</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -28626,7 +28663,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-45.101905551390566,170.97264888211333</t>
+          <t>-45.10190554500516,170.972648501026</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -28663,7 +28700,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-45.1019059792094,170.9726744149669</t>
+          <t>-45.10190597495252,170.97267416090864</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -28700,7 +28737,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-45.10190584086065,170.97266615807388</t>
+          <t>-45.10190583660376,170.97266590401566</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -28885,7 +28922,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-45.10190580680548,170.9726641256079</t>
+          <t>-45.101905804677024,170.9726639985788</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -28922,7 +28959,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-45.10190580042013,170.97266374452056</t>
+          <t>-45.101905796163244,170.9726634904623</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -28996,7 +29033,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-45.101906166511384,170.97268559352983</t>
+          <t>-45.101906164382946,170.9726854665007</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -29033,7 +29070,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-45.10190622185039,170.97268889628708</t>
+          <t>-45.10190621972197,170.97268876925796</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -29070,7 +29107,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-45.10190617928193,170.97268635570458</t>
+          <t>-45.10190617715351,170.97268622867546</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -29144,7 +29181,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-45.101905202320204,170.97262804933774</t>
+          <t>-45.101905198063214,170.9726277952795</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -29181,7 +29218,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-45.10190502352659,170.97261737889184</t>
+          <t>-45.101905021398096,170.97261725186272</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -29218,7 +29255,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-45.1019050511971,170.97261903027035</t>
+          <t>-45.10190504694011,170.97261877621213</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -29255,7 +29292,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-45.101905123566,170.97262334926037</t>
+          <t>-45.101905119309016,170.97262309520212</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -29292,7 +29329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-45.101905370470426,170.97263808463813</t>
+          <t>-45.10190536834194,170.972637957609</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -29329,7 +29366,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-45.10190531725843,170.97263490891015</t>
+          <t>-45.10190531512995,170.97263478188103</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -29366,7 +29403,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-45.101905381112815,170.97263871978373</t>
+          <t>-45.101905378984334,170.9726385927546</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -29440,7 +29477,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-45.10190519593475,170.97262766825037</t>
+          <t>-45.10190519380625,170.97262754122124</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -29551,7 +29588,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-45.10190535557108,170.9726371954343</t>
+          <t>-45.10190535769955,170.9726373224634</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -29588,7 +29625,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-45.10190514697943,170.97262474658066</t>
+          <t>-45.10190515123642,170.9726250006389</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -29625,7 +29662,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-45.101905438581646,170.97264214956996</t>
+          <t>-45.1019054428386,170.9726424036282</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -29662,7 +29699,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-45.10190525766088,170.97263135209482</t>
+          <t>-45.10190526191786,170.97263160615307</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -29699,7 +29736,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-45.10190508099608,170.97262080867802</t>
+          <t>-45.101905087381574,170.97262118976536</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -29736,7 +29773,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-45.1019052959736,170.97263363861896</t>
+          <t>-45.10190530235905,170.9726340197063</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -29773,7 +29810,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-45.10190536834194,170.972637957609</t>
+          <t>-45.10190537472738,170.97263833869638</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -29810,7 +29847,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-45.10190536834194,170.972637957609</t>
+          <t>-45.10190537472738,170.97263833869638</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -29847,7 +29884,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-45.10190553436283,170.97264786588036</t>
+          <t>-45.10190554500516,170.972648501026</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -29884,7 +29921,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-45.101904953285995,170.972613186931</t>
+          <t>-45.10190496180001,170.97261369504744</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -29921,7 +29958,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-45.10190520019173,170.97262792230862</t>
+          <t>-45.10190521296265,170.9726286844833</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -29958,7 +29995,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-45.101905119309016,170.97262309520212</t>
+          <t>-45.101905132079985,170.97262385737685</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -29995,7 +30032,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-45.10190511505203,170.9726228411439</t>
+          <t>-45.10190512782299,170.9726236033186</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -30032,7 +30069,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-45.10190524488997,170.97263058992013</t>
+          <t>-45.1019052534039,170.97263109803657</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -30069,7 +30106,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-45.10190482344687,170.9726054381549</t>
+          <t>-45.101904825575396,170.972605565184</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -30106,7 +30143,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-45.101904691478694,170.97259756234973</t>
+          <t>-45.10190469360722,170.97259768937886</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -30143,7 +30180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-45.1019041785005,170.97256694833345</t>
+          <t>-45.101904182757615,170.9725672023917</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -30180,7 +30217,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-45.101904446697596,170.97258295400164</t>
+          <t>-45.10190444882614,170.97258308103073</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -30217,7 +30254,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-45.10190431047078,170.9725748241384</t>
+          <t>-45.10190431472787,170.97257507819663</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -30254,7 +30291,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-45.10190427215688,170.97257253761438</t>
+          <t>-45.10190427641398,170.97257279167263</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -30291,7 +30328,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-45.10190425938557,170.97257177543972</t>
+          <t>-45.101904261514115,170.97257190246884</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -30328,7 +30365,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-45.10190481918984,170.97260518409666</t>
+          <t>-45.101904825575396,170.972605565184</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -30365,7 +30402,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-45.10190481918984,170.97260518409666</t>
+          <t>-45.101904825575396,170.972605565184</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -30402,7 +30439,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-45.10190519380625,170.97262754122124</t>
+          <t>-45.10190520019173,170.97262792230862</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -30439,7 +30476,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-45.10190532577235,170.97263541702662</t>
+          <t>-45.10190532790082,170.97263554405575</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -30476,7 +30513,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-45.10190527681725,170.9726324953569</t>
+          <t>-45.10190528107422,170.9726327494151</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -30513,7 +30550,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-45.10190521083416,170.97262855745421</t>
+          <t>-45.10190521296265,170.9726286844833</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -30550,7 +30587,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-45.10190531512995,170.97263478188103</t>
+          <t>-45.10190531725843,170.97263490891015</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -30587,7 +30624,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-45.101905174649836,170.9726263979592</t>
+          <t>-45.10190517890681,170.97262665201742</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -30624,7 +30661,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-45.101905221476606,170.9726291925998</t>
+          <t>-45.10190522573358,170.97262944665803</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -30661,7 +30698,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-45.10190535557108,170.9726371954343</t>
+          <t>-45.10190535982804,170.9726374494925</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -30698,7 +30735,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-45.10190535557108,170.9726371954343</t>
+          <t>-45.10190535982804,170.9726374494925</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -30735,7 +30772,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-45.10190518316379,170.97262690607567</t>
+          <t>-45.10190518742077,170.97262716013392</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -30772,7 +30809,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-45.10190511505203,170.9726228411439</t>
+          <t>-45.101905119309016,170.97262309520212</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -30809,7 +30846,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-45.10190511505203,170.9726228411439</t>
+          <t>-45.101905119309016,170.97262309520212</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -30846,7 +30883,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-45.10190520019173,170.97262792230862</t>
+          <t>-45.1019052044487,170.97262817636687</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -30883,7 +30920,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-45.101905189549264,170.97262728716302</t>
+          <t>-45.10190519380625,170.97262754122124</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -30920,7 +30957,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-45.101905166135865,170.9726258898427</t>
+          <t>-45.10190517039285,170.97262614390098</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -30957,7 +30994,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-45.1019051576219,170.97262538172626</t>
+          <t>-45.10190516187888,170.97262563578448</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -30994,7 +31031,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-45.10190521296265,170.9726286844833</t>
+          <t>-45.101905217219624,170.97262893854156</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -31031,7 +31068,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-45.10190518742077,170.97262716013392</t>
+          <t>-45.10190519167775,170.97262741419215</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -31068,7 +31105,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-45.10190541516843,170.97264075224965</t>
+          <t>-45.10190542155385,170.972641133337</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -31105,7 +31142,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-45.10190552584894,170.9726473577639</t>
+          <t>-45.101905530105896,170.97264761182214</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -31142,7 +31179,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-45.101905642914474,170.97265434436554</t>
+          <t>-45.10190564504292,170.9726544713947</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -31179,7 +31216,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-45.101905493921926,170.9726454523271</t>
+          <t>-45.101905496050385,170.9726455793562</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -31216,7 +31253,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-45.10190589194334,170.97266920677285</t>
+          <t>-45.10190589407178,170.97266933380195</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -31253,7 +31290,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-45.10190603029187,170.97267746366586</t>
+          <t>-45.1019060324203,170.97267759069499</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -31327,7 +31364,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-45.10190636658274,170.9726975342676</t>
+          <t>-45.10190636871117,170.97269766129676</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -31364,7 +31401,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-45.10190671351205,170.9727182400154</t>
+          <t>-45.10190671776882,170.97271849407366</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -31401,7 +31438,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-45.10190727327348,170.9727516486767</t>
+          <t>-45.10190727753019,170.97275190273498</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -31438,7 +31475,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-45.101907690427744,170.97277654638694</t>
+          <t>-45.1019076946844,170.97277680044522</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -31475,7 +31512,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-45.10190762444963,170.97277260848378</t>
+          <t>-45.101907628706286,170.97277286254203</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -31512,7 +31549,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>-45.10190764360458,170.972773751746</t>
+          <t>-45.101907645732915,170.9727738787751</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -31549,7 +31586,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-45.101907690427744,170.97277654638694</t>
+          <t>-45.101907696812724,170.97277692747437</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -31586,7 +31623,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-45.10190777343229,170.97278150052324</t>
+          <t>-45.10190778194556,170.97278200863977</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -31623,7 +31660,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-45.10190740948772,170.97275977854125</t>
+          <t>-45.10190742012943,170.97276041368687</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -31660,7 +31697,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>-45.10190739458932,170.97275888933729</t>
+          <t>-45.10190740523103,170.97275952448294</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -31697,7 +31734,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-45.10190717111243,170.9727455512784</t>
+          <t>-45.10190717962586,170.97274605939492</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -31734,7 +31771,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-45.10190717536914,170.97274580533664</t>
+          <t>-45.10190717962586,170.97274605939492</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -31771,7 +31808,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-45.10190710300488,170.97274148634617</t>
+          <t>-45.1019071072616,170.97274174040442</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -31808,7 +31845,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-45.10190703915392,170.97273767547225</t>
+          <t>-45.10190704128228,170.97273780250137</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -31845,7 +31882,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-45.10190690293812,170.9727295456079</t>
+          <t>-45.10190690506648,170.97272967263703</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -31882,7 +31919,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-45.10190691145161,170.9727300537244</t>
+          <t>-45.10190691358,170.97273018075356</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -31919,7 +31956,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-45.10190690293812,170.9727295456079</t>
+          <t>-45.10190690506648,170.97272967263703</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -32030,7 +32067,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-45.101906189924065,170.9726869908502</t>
+          <t>-45.10190619205248,170.97268711787933</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -32067,7 +32104,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-45.101906194180906,170.97268724490846</t>
+          <t>-45.101906196309315,170.97268737193758</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -32104,7 +32141,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-45.10190632401447,170.9726949936851</t>
+          <t>-45.101906326142895,170.97269512071423</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -32178,7 +32215,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>-45.10190649428721,170.97270515601522</t>
+          <t>-45.101906492158804,170.9727050289861</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -32215,7 +32252,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>-45.10190677523526,170.97272192386015</t>
+          <t>-45.10190677949203,170.9727221779184</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -32252,7 +32289,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-45.10190661986279,170.97271265073377</t>
+          <t>-45.10190662411958,170.97271290479202</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -32289,7 +32326,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>-45.101906590065234,170.972710872326</t>
+          <t>-45.10190659432203,170.97271112638424</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -32363,7 +32400,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>-45.10190678587718,170.9727225590058</t>
+          <t>-45.1019067837488,170.97272243197665</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -32474,7 +32511,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>-45.10190647087477,170.97270375869482</t>
+          <t>-45.10190646874636,170.97270363166572</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -32511,7 +32548,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>-45.10190636658274,170.9726975342676</t>
+          <t>-45.10190636871117,170.97269766129676</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -32548,7 +32585,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>-45.101906400637326,170.97269956673367</t>
+          <t>-45.10190640489414,170.97269982079192</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -32622,7 +32659,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>-45.101906653917084,170.9727146831998</t>
+          <t>-45.101906651788696,170.97271455617067</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -32659,7 +32696,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>-45.10190679013395,170.97272281306405</t>
+          <t>-45.10190678587718,170.9727225590058</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -32696,7 +32733,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>-45.101906826316466,170.97272497255923</t>
+          <t>-45.1019068220597,170.97272471850098</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -32733,7 +32770,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>-45.10190663901834,170.9727137939959</t>
+          <t>-45.10190663476155,170.97271353993764</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -32807,7 +32844,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>-45.10190670499848,170.97271773189888</t>
+          <t>-45.10190670287009,170.97271760486976</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -32918,7 +32955,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>-45.10190725411831,170.97275050541452</t>
+          <t>-45.101907251989964,170.9727503783854</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -32942,6 +32979,43 @@
         </is>
       </c>
       <c r="G423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-45.10190710938996,170.97274186743357</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-45.10253969788616,170.97264828850547</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-45.10317259852665,170.97257376243329</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-45.103805449481584,170.97249669418088</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-45.104441103215066,170.97258731020293</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
